--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lirui\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C497A79-3307-45F4-BB6A-4C54B761FB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DF22D7-5CB0-4A38-926A-05EB1A6D2365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="243">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -751,7 +751,28 @@
     <t>200. Number of Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">168. Excel Sheet Column Title    </t>
+    <t>168. Excel Sheet Column Title</t>
+  </si>
+  <si>
+    <t>402. Remove K Digits</t>
+  </si>
+  <si>
+    <t>387. First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>414. Third Maximum Number</t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>204. Count Primes</t>
+  </si>
+  <si>
+    <t>No match</t>
   </si>
 </sst>
 </file>
@@ -835,7 +856,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +872,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,7 +1029,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,15 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1310,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1328,12 +1358,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.1" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2"/>
@@ -1354,10 +1384,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1366,130 +1396,130 @@
       <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="14" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="14" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1500,8 +1530,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1510,8 +1540,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1550,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1529,9 +1559,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18.75">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+    <row r="17" spans="2:9" ht="18.75">
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
@@ -1539,9 +1569,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18.75">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
+    <row r="18" spans="2:9" ht="18.75">
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
@@ -1549,9 +1579,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18.75">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+    <row r="19" spans="2:9" ht="18.75">
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1559,9 +1589,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18.75">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+    <row r="20" spans="2:9" ht="18.75">
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1569,9 +1599,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18.75">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+    <row r="21" spans="2:9" ht="18.75">
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1579,9 +1609,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18.75">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
+    <row r="22" spans="2:9" ht="18.75">
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1589,9 +1619,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18.75">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
+    <row r="23" spans="2:9" ht="18.75">
+      <c r="B23" s="17"/>
+      <c r="C23" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1601,9 +1631,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18.75">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
+    <row r="24" spans="2:9" ht="18.75">
+      <c r="B24" s="17"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
@@ -1611,29 +1641,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18.75">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
+    <row r="25" spans="2:9" ht="18.75">
+      <c r="B25" s="17"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="18.75">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
+      <c r="I25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="18.75">
+      <c r="B26" s="17"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="18.75">
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
+      <c r="I26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="18.75">
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1641,11 +1677,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18.75">
-      <c r="B28" s="20" t="s">
+    <row r="28" spans="2:9" ht="18.75">
+      <c r="B28" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1654,70 +1690,91 @@
       <c r="E28" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="18.75">
-      <c r="B29" s="20"/>
-      <c r="C29" s="17"/>
+      <c r="F28" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="18.75">
+      <c r="B29" s="18"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="18.75">
-      <c r="B30" s="20"/>
-      <c r="C30" s="17"/>
+      <c r="F29" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="18.75">
+      <c r="B30" s="18"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="18.75">
-      <c r="B31" s="20"/>
-      <c r="C31" s="17"/>
+      <c r="F30" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="18.75">
+      <c r="B31" s="18"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="18.75">
-      <c r="B32" s="20"/>
-      <c r="C32" s="17"/>
+      <c r="F31" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="18.75">
+      <c r="B32" s="18"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75">
-      <c r="B33" s="20"/>
-      <c r="C33" s="17"/>
+      <c r="F32" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="B33" s="18"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75">
-      <c r="B34" s="20"/>
-      <c r="C34" s="17"/>
+      <c r="F33" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="B34" s="18"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.75">
-      <c r="B35" s="20"/>
-      <c r="C35" s="17" t="s">
+      <c r="F34" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="B35" s="18"/>
+      <c r="C35" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1727,9 +1784,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.75">
-      <c r="B36" s="20"/>
-      <c r="C36" s="17"/>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="B36" s="18"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
@@ -1737,9 +1794,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.75">
-      <c r="B37" s="20"/>
-      <c r="C37" s="17"/>
+    <row r="37" spans="1:6" ht="18.75">
+      <c r="B37" s="18"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="8" t="s">
         <v>76</v>
       </c>
@@ -1747,9 +1804,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.75">
-      <c r="B38" s="20"/>
-      <c r="C38" s="17"/>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="B38" s="18"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="8" t="s">
         <v>78</v>
       </c>
@@ -1757,9 +1814,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.75">
-      <c r="B39" s="20"/>
-      <c r="C39" s="17"/>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="B39" s="18"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="8" t="s">
         <v>80</v>
       </c>
@@ -1767,9 +1824,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.75">
-      <c r="B40" s="20"/>
-      <c r="C40" s="17"/>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="B40" s="18"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
@@ -1777,9 +1834,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18.75">
-      <c r="B41" s="20"/>
-      <c r="C41" s="17"/>
+    <row r="41" spans="1:6" ht="18.75">
+      <c r="B41" s="18"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
@@ -1787,9 +1844,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.75">
-      <c r="B42" s="20"/>
-      <c r="C42" s="17"/>
+    <row r="42" spans="1:6" ht="18.75">
+      <c r="B42" s="18"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="8" t="s">
         <v>86</v>
       </c>
@@ -1797,9 +1854,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.75">
-      <c r="B43" s="20"/>
-      <c r="C43" s="17" t="s">
+    <row r="43" spans="1:6" ht="18.75">
+      <c r="B43" s="18"/>
+      <c r="C43" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -1809,9 +1866,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75">
-      <c r="B44" s="20"/>
-      <c r="C44" s="17"/>
+    <row r="44" spans="1:6" ht="18.75">
+      <c r="B44" s="18"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="8" t="s">
         <v>90</v>
       </c>
@@ -1819,9 +1876,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.75">
-      <c r="B45" s="20"/>
-      <c r="C45" s="17"/>
+    <row r="45" spans="1:6" ht="18.75">
+      <c r="B45" s="18"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="8" t="s">
         <v>55</v>
       </c>
@@ -1829,9 +1886,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.75">
-      <c r="B46" s="20"/>
-      <c r="C46" s="17"/>
+    <row r="46" spans="1:6" ht="18.75">
+      <c r="B46" s="18"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="8" t="s">
         <v>92</v>
       </c>
@@ -1839,8 +1896,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.75">
-      <c r="B47" s="20"/>
+    <row r="47" spans="1:6" ht="18.75">
+      <c r="B47" s="18"/>
       <c r="C47" s="9" t="s">
         <v>94</v>
       </c>
@@ -1851,12 +1908,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.75">
+    <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="2"/>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -1868,8 +1925,8 @@
     </row>
     <row r="49" spans="1:5" ht="18.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="4" t="s">
         <v>9</v>
       </c>
@@ -1879,8 +1936,8 @@
     </row>
     <row r="50" spans="1:5" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="4" t="s">
         <v>101</v>
       </c>
@@ -1890,8 +1947,8 @@
     </row>
     <row r="51" spans="1:5" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="4" t="s">
         <v>103</v>
       </c>
@@ -1901,8 +1958,8 @@
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75">
       <c r="A52" s="2"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="4" t="s">
         <v>105</v>
       </c>
@@ -1912,8 +1969,8 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="6" t="s">
         <v>21</v>
       </c>
@@ -1923,8 +1980,8 @@
     </row>
     <row r="54" spans="1:5" ht="18.75">
       <c r="A54" s="2"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
@@ -1934,8 +1991,8 @@
     </row>
     <row r="55" spans="1:5" ht="18.75">
       <c r="A55" s="2"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="6" t="s">
         <v>109</v>
       </c>
@@ -1945,8 +2002,8 @@
     </row>
     <row r="56" spans="1:5" ht="18.75">
       <c r="A56" s="2"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="6" t="s">
         <v>111</v>
       </c>
@@ -1956,8 +2013,8 @@
     </row>
     <row r="57" spans="1:5" ht="18.75">
       <c r="A57" s="2"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="6" t="s">
         <v>113</v>
       </c>
@@ -1967,8 +2024,8 @@
     </row>
     <row r="58" spans="1:5" ht="18.75">
       <c r="A58" s="2"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -1980,8 +2037,8 @@
     </row>
     <row r="59" spans="1:5" ht="18.75">
       <c r="A59" s="2"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="6" t="s">
         <v>117</v>
       </c>
@@ -1991,8 +2048,8 @@
     </row>
     <row r="60" spans="1:5" ht="18.75">
       <c r="A60" s="2"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="4" t="s">
         <v>119</v>
       </c>
@@ -2002,8 +2059,8 @@
     </row>
     <row r="61" spans="1:5" ht="18.75">
       <c r="A61" s="2"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="6" t="s">
         <v>121</v>
       </c>
@@ -2013,8 +2070,8 @@
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="6" t="s">
         <v>34</v>
       </c>
@@ -2024,8 +2081,8 @@
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="4" t="s">
         <v>124</v>
       </c>
@@ -2035,8 +2092,8 @@
     </row>
     <row r="64" spans="1:5" ht="18" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="6" t="s">
         <v>126</v>
       </c>
@@ -2046,8 +2103,8 @@
     </row>
     <row r="65" spans="1:5" ht="18" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="6" t="s">
         <v>128</v>
       </c>
@@ -2057,8 +2114,8 @@
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="6" t="s">
         <v>130</v>
       </c>
@@ -2068,8 +2125,8 @@
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="6" t="s">
         <v>132</v>
       </c>
@@ -2079,8 +2136,8 @@
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15" t="s">
+      <c r="B68" s="17"/>
+      <c r="C68" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2092,8 +2149,8 @@
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="6" t="s">
         <v>136</v>
       </c>
@@ -2103,8 +2160,8 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="4" t="s">
         <v>51</v>
       </c>
@@ -2114,8 +2171,8 @@
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="4" t="s">
         <v>138</v>
       </c>
@@ -2125,8 +2182,8 @@
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="4" t="s">
         <v>140</v>
       </c>
@@ -2136,10 +2193,10 @@
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -2150,8 +2207,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="18.75">
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="5" t="s">
         <v>19</v>
       </c>
@@ -2160,8 +2217,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75">
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="4" t="s">
         <v>145</v>
       </c>
@@ -2170,8 +2227,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.75">
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="4" t="s">
         <v>147</v>
       </c>
@@ -2180,8 +2237,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.75">
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
@@ -2190,8 +2247,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="18.75">
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="4" t="s">
         <v>151</v>
       </c>
@@ -2200,8 +2257,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="18.75">
-      <c r="B79" s="14"/>
-      <c r="C79" s="15" t="s">
+      <c r="B79" s="17"/>
+      <c r="C79" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -2212,8 +2269,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="18.75">
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="6" t="s">
         <v>155</v>
       </c>
@@ -2222,8 +2279,8 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="18.75">
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="4" t="s">
         <v>157</v>
       </c>
@@ -2232,8 +2289,8 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="18.75">
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="6" t="s">
         <v>159</v>
       </c>
@@ -2242,8 +2299,8 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="18.75">
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="6" t="s">
         <v>161</v>
       </c>
@@ -2252,8 +2309,8 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="18.75">
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="4" t="s">
         <v>163</v>
       </c>
@@ -2262,8 +2319,8 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="18.75">
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="6" t="s">
         <v>78</v>
       </c>
@@ -2272,8 +2329,8 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="18.75">
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="6" t="s">
         <v>166</v>
       </c>
@@ -2282,8 +2339,8 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="18.75">
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="6" t="s">
         <v>168</v>
       </c>
@@ -2292,8 +2349,8 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="18.75">
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="6" t="s">
         <v>170</v>
       </c>
@@ -2302,8 +2359,8 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="18.75">
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="6" t="s">
         <v>172</v>
       </c>
@@ -2312,8 +2369,8 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="18.75">
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="6" t="s">
         <v>174</v>
       </c>
@@ -2322,8 +2379,8 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="18.75">
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="4" t="s">
         <v>176</v>
       </c>
@@ -2332,8 +2389,8 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="18.75">
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="4" t="s">
         <v>178</v>
       </c>
@@ -2342,8 +2399,8 @@
       </c>
     </row>
     <row r="93" spans="2:5" ht="18.75">
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="4" t="s">
         <v>180</v>
       </c>
@@ -2352,8 +2409,8 @@
       </c>
     </row>
     <row r="94" spans="2:5" ht="18.75">
-      <c r="B94" s="14"/>
-      <c r="C94" s="15" t="s">
+      <c r="B94" s="17"/>
+      <c r="C94" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -2364,8 +2421,8 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="18.75">
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="6" t="s">
         <v>182</v>
       </c>
@@ -2374,8 +2431,8 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="18.75">
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="4" t="s">
         <v>184</v>
       </c>
@@ -2384,8 +2441,8 @@
       </c>
     </row>
     <row r="97" spans="2:5" ht="18.75">
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="19"/>
       <c r="D97" s="4" t="s">
         <v>186</v>
       </c>
@@ -2394,10 +2451,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="18.75">
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2408,8 +2465,8 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="18.75">
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
@@ -2418,8 +2475,8 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="18.75">
-      <c r="B100" s="14"/>
-      <c r="C100" s="15"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="4" t="s">
         <v>101</v>
       </c>
@@ -2428,8 +2485,8 @@
       </c>
     </row>
     <row r="101" spans="2:5" ht="18.75">
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="6" t="s">
         <v>103</v>
       </c>
@@ -2438,8 +2495,8 @@
       </c>
     </row>
     <row r="102" spans="2:5" ht="18.75">
-      <c r="B102" s="14"/>
-      <c r="C102" s="15"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="6" t="s">
         <v>21</v>
       </c>
@@ -2448,8 +2505,8 @@
       </c>
     </row>
     <row r="103" spans="2:5" ht="18.75">
-      <c r="B103" s="14"/>
-      <c r="C103" s="15" t="s">
+      <c r="B103" s="17"/>
+      <c r="C103" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -2460,8 +2517,8 @@
       </c>
     </row>
     <row r="104" spans="2:5" ht="18.75">
-      <c r="B104" s="14"/>
-      <c r="C104" s="15"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="6" t="s">
         <v>28</v>
       </c>
@@ -2470,8 +2527,8 @@
       </c>
     </row>
     <row r="105" spans="2:5" ht="18.75">
-      <c r="B105" s="14"/>
-      <c r="C105" s="15"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="4" t="s">
         <v>32</v>
       </c>
@@ -2480,8 +2537,8 @@
       </c>
     </row>
     <row r="106" spans="2:5" ht="18.75">
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="6" t="s">
         <v>195</v>
       </c>
@@ -2490,8 +2547,8 @@
       </c>
     </row>
     <row r="107" spans="2:5" ht="18.75">
-      <c r="B107" s="14"/>
-      <c r="C107" s="15"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="6" t="s">
         <v>197</v>
       </c>
@@ -2500,8 +2557,8 @@
       </c>
     </row>
     <row r="108" spans="2:5" ht="18.75">
-      <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="4" t="s">
         <v>199</v>
       </c>
@@ -2510,8 +2567,8 @@
       </c>
     </row>
     <row r="109" spans="2:5" ht="18.75">
-      <c r="B109" s="14"/>
-      <c r="C109" s="15"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="6" t="s">
         <v>40</v>
       </c>
@@ -2520,8 +2577,8 @@
       </c>
     </row>
     <row r="110" spans="2:5" ht="18.75">
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="6" t="s">
         <v>201</v>
       </c>
@@ -2530,8 +2587,8 @@
       </c>
     </row>
     <row r="111" spans="2:5" ht="18.75">
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="6" t="s">
         <v>203</v>
       </c>
@@ -2540,8 +2597,8 @@
       </c>
     </row>
     <row r="112" spans="2:5" ht="18.75">
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="6" t="s">
         <v>205</v>
       </c>
@@ -2550,8 +2607,8 @@
       </c>
     </row>
     <row r="113" spans="2:5" ht="18.75">
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="4" t="s">
         <v>207</v>
       </c>
@@ -2560,8 +2617,8 @@
       </c>
     </row>
     <row r="114" spans="2:5" ht="18.75">
-      <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="6" t="s">
         <v>209</v>
       </c>
@@ -2570,8 +2627,8 @@
       </c>
     </row>
     <row r="115" spans="2:5" ht="18.75">
-      <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="6" t="s">
         <v>211</v>
       </c>
@@ -2580,8 +2637,8 @@
       </c>
     </row>
     <row r="116" spans="2:5" ht="18.75">
-      <c r="B116" s="14"/>
-      <c r="C116" s="15"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="6" t="s">
         <v>213</v>
       </c>
@@ -2590,8 +2647,8 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="18.75">
-      <c r="B117" s="14"/>
-      <c r="C117" s="15"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="4" t="s">
         <v>215</v>
       </c>
@@ -2600,8 +2657,8 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="18.75">
-      <c r="B118" s="14"/>
-      <c r="C118" s="15" t="s">
+      <c r="B118" s="17"/>
+      <c r="C118" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -2612,8 +2669,8 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="18.75">
-      <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="19"/>
       <c r="D119" s="6" t="s">
         <v>217</v>
       </c>
@@ -2622,8 +2679,8 @@
       </c>
     </row>
     <row r="120" spans="2:5" ht="18.75">
-      <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="4" t="s">
         <v>219</v>
       </c>
@@ -2632,8 +2689,8 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="18.75">
-      <c r="B121" s="14"/>
-      <c r="C121" s="15"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="4" t="s">
         <v>221</v>
       </c>
@@ -2642,8 +2699,8 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="18.75">
-      <c r="B122" s="14"/>
-      <c r="C122" s="15"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="4" t="s">
         <v>223</v>
       </c>
@@ -2653,11 +2710,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="B28:B47"/>
-    <mergeCell ref="B48:B72"/>
-    <mergeCell ref="B73:B97"/>
     <mergeCell ref="B98:B122"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C22"/>
@@ -2674,6 +2726,11 @@
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="C103:C117"/>
     <mergeCell ref="C118:C122"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="B28:B47"/>
+    <mergeCell ref="B48:B72"/>
+    <mergeCell ref="B73:B97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lirui\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DF22D7-5CB0-4A38-926A-05EB1A6D2365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB3A72-B48C-43CA-B730-CCDDD4747691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="250">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -774,17 +774,50 @@
   <si>
     <t>No match</t>
   </si>
+  <si>
+    <t>74. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>32. Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>202. Happy Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120 
+Maximum Average Subtree
+644 
+Maximum Average Subarray II 
+643 
+Maximum Average Subarray I </t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -982,78 +1015,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1358,12 +1397,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.1" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2"/>
@@ -1384,10 +1423,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1401,8 +1440,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1414,8 +1453,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1427,8 +1466,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75">
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1440,8 +1479,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75">
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1453,8 +1492,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1466,8 +1505,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75">
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1479,8 +1518,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75">
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1492,8 +1531,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1544,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75">
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1518,8 +1557,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75">
-      <c r="B13" s="17"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1530,8 +1569,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75">
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1540,8 +1579,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75">
-      <c r="B15" s="17"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
@@ -1550,8 +1589,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75">
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1560,8 +1599,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="18.75">
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
@@ -1570,8 +1609,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="18.75">
-      <c r="B18" s="17"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
@@ -1580,8 +1619,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.75">
-      <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1590,8 +1629,8 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75">
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1600,8 +1639,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="18.75">
-      <c r="B21" s="17"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1610,8 +1649,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="18.75">
-      <c r="B22" s="17"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1620,8 +1659,8 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="18.75">
-      <c r="B23" s="17"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1632,8 +1671,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="18.75">
-      <c r="B24" s="17"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
@@ -1642,8 +1681,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="18.75">
-      <c r="B25" s="17"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
@@ -1655,8 +1694,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="18.75">
-      <c r="B26" s="17"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1668,8 +1707,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="18.75">
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1678,10 +1717,10 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="18.75">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1695,8 +1734,8 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="18.75">
-      <c r="B29" s="18"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="8" t="s">
         <v>62</v>
       </c>
@@ -1708,8 +1747,8 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="18.75">
-      <c r="B30" s="18"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="8" t="s">
         <v>64</v>
       </c>
@@ -1721,8 +1760,8 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="18.75">
-      <c r="B31" s="18"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="8" t="s">
         <v>66</v>
       </c>
@@ -1734,8 +1773,8 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="18.75">
-      <c r="B32" s="18"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
@@ -1747,8 +1786,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="B33" s="18"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
@@ -1760,8 +1799,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75">
-      <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
@@ -1773,8 +1812,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75">
-      <c r="B35" s="18"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1785,8 +1824,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75">
-      <c r="B36" s="18"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
@@ -1795,8 +1834,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75">
-      <c r="B37" s="18"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="8" t="s">
         <v>76</v>
       </c>
@@ -1805,8 +1844,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75">
-      <c r="B38" s="18"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="8" t="s">
         <v>78</v>
       </c>
@@ -1815,8 +1854,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75">
-      <c r="B39" s="18"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="8" t="s">
         <v>80</v>
       </c>
@@ -1825,8 +1864,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75">
-      <c r="B40" s="18"/>
-      <c r="C40" s="21"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
@@ -1835,8 +1874,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75">
-      <c r="B41" s="18"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
@@ -1845,8 +1884,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75">
-      <c r="B42" s="18"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="8" t="s">
         <v>86</v>
       </c>
@@ -1855,8 +1894,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75">
-      <c r="B43" s="18"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -1867,8 +1906,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="B44" s="18"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="8" t="s">
         <v>90</v>
       </c>
@@ -1877,8 +1916,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="B45" s="18"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="8" t="s">
         <v>55</v>
       </c>
@@ -1887,8 +1926,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="B46" s="18"/>
-      <c r="C46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="8" t="s">
         <v>92</v>
       </c>
@@ -1897,7 +1936,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75">
-      <c r="B47" s="18"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
         <v>94</v>
       </c>
@@ -1910,10 +1949,10 @@
     </row>
     <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="2"/>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -1922,110 +1961,140 @@
       <c r="E48" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.75">
+      <c r="F48" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.75">
+      <c r="F49" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.75">
+      <c r="F50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75">
+      <c r="F51" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="18.75">
       <c r="A52" s="2"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75">
+      <c r="F52" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="18.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.75">
+      <c r="F53" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75">
       <c r="A54" s="2"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.75">
+      <c r="F54" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75">
       <c r="A55" s="2"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.75">
+      <c r="F55" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="90">
       <c r="A56" s="2"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.75">
+      <c r="F56" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75">
       <c r="A57" s="2"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.75">
+      <c r="F57" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75">
       <c r="A58" s="2"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2035,10 +2104,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75">
+    <row r="59" spans="1:6" ht="18.75">
       <c r="A59" s="2"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="6" t="s">
         <v>117</v>
       </c>
@@ -2046,10 +2115,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75">
+    <row r="60" spans="1:6" ht="18.75">
       <c r="A60" s="2"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="4" t="s">
         <v>119</v>
       </c>
@@ -2057,10 +2126,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75">
+    <row r="61" spans="1:6" ht="18.75">
       <c r="A61" s="2"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="6" t="s">
         <v>121</v>
       </c>
@@ -2068,10 +2137,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18" customHeight="1">
+    <row r="62" spans="1:6" ht="18" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="6" t="s">
         <v>34</v>
       </c>
@@ -2079,10 +2148,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18" customHeight="1">
+    <row r="63" spans="1:6" ht="18" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="4" t="s">
         <v>124</v>
       </c>
@@ -2090,10 +2159,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" customHeight="1">
+    <row r="64" spans="1:6" ht="18" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="6" t="s">
         <v>126</v>
       </c>
@@ -2103,8 +2172,8 @@
     </row>
     <row r="65" spans="1:5" ht="18" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="6" t="s">
         <v>128</v>
       </c>
@@ -2114,8 +2183,8 @@
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="6" t="s">
         <v>130</v>
       </c>
@@ -2125,8 +2194,8 @@
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="6" t="s">
         <v>132</v>
       </c>
@@ -2136,8 +2205,8 @@
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2149,8 +2218,8 @@
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="6" t="s">
         <v>136</v>
       </c>
@@ -2160,8 +2229,8 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="4" t="s">
         <v>51</v>
       </c>
@@ -2171,8 +2240,8 @@
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="4" t="s">
         <v>138</v>
       </c>
@@ -2182,8 +2251,8 @@
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="4" t="s">
         <v>140</v>
       </c>
@@ -2193,10 +2262,10 @@
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -2207,8 +2276,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="18.75">
-      <c r="B74" s="17"/>
-      <c r="C74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="5" t="s">
         <v>19</v>
       </c>
@@ -2217,8 +2286,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75">
-      <c r="B75" s="17"/>
-      <c r="C75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="4" t="s">
         <v>145</v>
       </c>
@@ -2227,8 +2296,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.75">
-      <c r="B76" s="17"/>
-      <c r="C76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="4" t="s">
         <v>147</v>
       </c>
@@ -2237,8 +2306,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.75">
-      <c r="B77" s="17"/>
-      <c r="C77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
@@ -2247,8 +2316,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="18.75">
-      <c r="B78" s="17"/>
-      <c r="C78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="4" t="s">
         <v>151</v>
       </c>
@@ -2257,8 +2326,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="18.75">
-      <c r="B79" s="17"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="19"/>
+      <c r="C79" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -2269,8 +2338,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="18.75">
-      <c r="B80" s="17"/>
-      <c r="C80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="6" t="s">
         <v>155</v>
       </c>
@@ -2279,8 +2348,8 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="18.75">
-      <c r="B81" s="17"/>
-      <c r="C81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="4" t="s">
         <v>157</v>
       </c>
@@ -2289,8 +2358,8 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="18.75">
-      <c r="B82" s="17"/>
-      <c r="C82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="6" t="s">
         <v>159</v>
       </c>
@@ -2299,8 +2368,8 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="18.75">
-      <c r="B83" s="17"/>
-      <c r="C83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="6" t="s">
         <v>161</v>
       </c>
@@ -2309,8 +2378,8 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="18.75">
-      <c r="B84" s="17"/>
-      <c r="C84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="4" t="s">
         <v>163</v>
       </c>
@@ -2319,8 +2388,8 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="18.75">
-      <c r="B85" s="17"/>
-      <c r="C85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="6" t="s">
         <v>78</v>
       </c>
@@ -2329,8 +2398,8 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="18.75">
-      <c r="B86" s="17"/>
-      <c r="C86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="6" t="s">
         <v>166</v>
       </c>
@@ -2339,8 +2408,8 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="18.75">
-      <c r="B87" s="17"/>
-      <c r="C87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="21"/>
       <c r="D87" s="6" t="s">
         <v>168</v>
       </c>
@@ -2349,8 +2418,8 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="18.75">
-      <c r="B88" s="17"/>
-      <c r="C88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="6" t="s">
         <v>170</v>
       </c>
@@ -2359,8 +2428,8 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="18.75">
-      <c r="B89" s="17"/>
-      <c r="C89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="6" t="s">
         <v>172</v>
       </c>
@@ -2369,8 +2438,8 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="18.75">
-      <c r="B90" s="17"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="6" t="s">
         <v>174</v>
       </c>
@@ -2379,8 +2448,8 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="18.75">
-      <c r="B91" s="17"/>
-      <c r="C91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="4" t="s">
         <v>176</v>
       </c>
@@ -2389,8 +2458,8 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="18.75">
-      <c r="B92" s="17"/>
-      <c r="C92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="4" t="s">
         <v>178</v>
       </c>
@@ -2399,8 +2468,8 @@
       </c>
     </row>
     <row r="93" spans="2:5" ht="18.75">
-      <c r="B93" s="17"/>
-      <c r="C93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="4" t="s">
         <v>180</v>
       </c>
@@ -2409,8 +2478,8 @@
       </c>
     </row>
     <row r="94" spans="2:5" ht="18.75">
-      <c r="B94" s="17"/>
-      <c r="C94" s="19" t="s">
+      <c r="B94" s="19"/>
+      <c r="C94" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -2421,8 +2490,8 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="18.75">
-      <c r="B95" s="17"/>
-      <c r="C95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="6" t="s">
         <v>182</v>
       </c>
@@ -2431,8 +2500,8 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="18.75">
-      <c r="B96" s="17"/>
-      <c r="C96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="4" t="s">
         <v>184</v>
       </c>
@@ -2441,8 +2510,8 @@
       </c>
     </row>
     <row r="97" spans="2:5" ht="18.75">
-      <c r="B97" s="17"/>
-      <c r="C97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="4" t="s">
         <v>186</v>
       </c>
@@ -2451,10 +2520,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="18.75">
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2465,8 +2534,8 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="18.75">
-      <c r="B99" s="17"/>
-      <c r="C99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
@@ -2475,8 +2544,8 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="18.75">
-      <c r="B100" s="17"/>
-      <c r="C100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="4" t="s">
         <v>101</v>
       </c>
@@ -2485,8 +2554,8 @@
       </c>
     </row>
     <row r="101" spans="2:5" ht="18.75">
-      <c r="B101" s="17"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="21"/>
       <c r="D101" s="6" t="s">
         <v>103</v>
       </c>
@@ -2495,8 +2564,8 @@
       </c>
     </row>
     <row r="102" spans="2:5" ht="18.75">
-      <c r="B102" s="17"/>
-      <c r="C102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="21"/>
       <c r="D102" s="6" t="s">
         <v>21</v>
       </c>
@@ -2505,8 +2574,8 @@
       </c>
     </row>
     <row r="103" spans="2:5" ht="18.75">
-      <c r="B103" s="17"/>
-      <c r="C103" s="19" t="s">
+      <c r="B103" s="19"/>
+      <c r="C103" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -2517,8 +2586,8 @@
       </c>
     </row>
     <row r="104" spans="2:5" ht="18.75">
-      <c r="B104" s="17"/>
-      <c r="C104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="6" t="s">
         <v>28</v>
       </c>
@@ -2527,8 +2596,8 @@
       </c>
     </row>
     <row r="105" spans="2:5" ht="18.75">
-      <c r="B105" s="17"/>
-      <c r="C105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="21"/>
       <c r="D105" s="4" t="s">
         <v>32</v>
       </c>
@@ -2537,8 +2606,8 @@
       </c>
     </row>
     <row r="106" spans="2:5" ht="18.75">
-      <c r="B106" s="17"/>
-      <c r="C106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="6" t="s">
         <v>195</v>
       </c>
@@ -2547,8 +2616,8 @@
       </c>
     </row>
     <row r="107" spans="2:5" ht="18.75">
-      <c r="B107" s="17"/>
-      <c r="C107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="6" t="s">
         <v>197</v>
       </c>
@@ -2557,8 +2626,8 @@
       </c>
     </row>
     <row r="108" spans="2:5" ht="18.75">
-      <c r="B108" s="17"/>
-      <c r="C108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="4" t="s">
         <v>199</v>
       </c>
@@ -2567,8 +2636,8 @@
       </c>
     </row>
     <row r="109" spans="2:5" ht="18.75">
-      <c r="B109" s="17"/>
-      <c r="C109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="21"/>
       <c r="D109" s="6" t="s">
         <v>40</v>
       </c>
@@ -2577,8 +2646,8 @@
       </c>
     </row>
     <row r="110" spans="2:5" ht="18.75">
-      <c r="B110" s="17"/>
-      <c r="C110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="6" t="s">
         <v>201</v>
       </c>
@@ -2587,8 +2656,8 @@
       </c>
     </row>
     <row r="111" spans="2:5" ht="18.75">
-      <c r="B111" s="17"/>
-      <c r="C111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="21"/>
       <c r="D111" s="6" t="s">
         <v>203</v>
       </c>
@@ -2597,8 +2666,8 @@
       </c>
     </row>
     <row r="112" spans="2:5" ht="18.75">
-      <c r="B112" s="17"/>
-      <c r="C112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="21"/>
       <c r="D112" s="6" t="s">
         <v>205</v>
       </c>
@@ -2607,8 +2676,8 @@
       </c>
     </row>
     <row r="113" spans="2:5" ht="18.75">
-      <c r="B113" s="17"/>
-      <c r="C113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="21"/>
       <c r="D113" s="4" t="s">
         <v>207</v>
       </c>
@@ -2617,8 +2686,8 @@
       </c>
     </row>
     <row r="114" spans="2:5" ht="18.75">
-      <c r="B114" s="17"/>
-      <c r="C114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="21"/>
       <c r="D114" s="6" t="s">
         <v>209</v>
       </c>
@@ -2627,8 +2696,8 @@
       </c>
     </row>
     <row r="115" spans="2:5" ht="18.75">
-      <c r="B115" s="17"/>
-      <c r="C115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="21"/>
       <c r="D115" s="6" t="s">
         <v>211</v>
       </c>
@@ -2637,8 +2706,8 @@
       </c>
     </row>
     <row r="116" spans="2:5" ht="18.75">
-      <c r="B116" s="17"/>
-      <c r="C116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="21"/>
       <c r="D116" s="6" t="s">
         <v>213</v>
       </c>
@@ -2647,8 +2716,8 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="18.75">
-      <c r="B117" s="17"/>
-      <c r="C117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="21"/>
       <c r="D117" s="4" t="s">
         <v>215</v>
       </c>
@@ -2657,8 +2726,8 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="18.75">
-      <c r="B118" s="17"/>
-      <c r="C118" s="19" t="s">
+      <c r="B118" s="19"/>
+      <c r="C118" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -2669,8 +2738,8 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="18.75">
-      <c r="B119" s="17"/>
-      <c r="C119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="6" t="s">
         <v>217</v>
       </c>
@@ -2679,8 +2748,8 @@
       </c>
     </row>
     <row r="120" spans="2:5" ht="18.75">
-      <c r="B120" s="17"/>
-      <c r="C120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="21"/>
       <c r="D120" s="4" t="s">
         <v>219</v>
       </c>
@@ -2689,8 +2758,8 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="18.75">
-      <c r="B121" s="17"/>
-      <c r="C121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="21"/>
       <c r="D121" s="4" t="s">
         <v>221</v>
       </c>
@@ -2699,8 +2768,8 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="18.75">
-      <c r="B122" s="17"/>
-      <c r="C122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="21"/>
       <c r="D122" s="4" t="s">
         <v>223</v>
       </c>

--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lirui\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB3A72-B48C-43CA-B730-CCDDD4747691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="259">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -787,30 +786,61 @@
     <t>202. Happy Number</t>
   </si>
   <si>
-    <t xml:space="preserve">1120 
-Maximum Average Subtree
-644 
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>896. Monotonic Array</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>647. Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>339.Nested List Weight Sum</t>
+  </si>
+  <si>
+    <t>94. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>O(mn)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Maximum Average Subarray II 
-643 
-Maximum Average Subarray I </t>
-  </si>
-  <si>
-    <t>543. Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>21. Merge Two Sorted Lists</t>
+</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,6 +917,18 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1015,85 +1057,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1378,11 +1429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1397,12 +1448,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.1" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2"/>
@@ -1423,7 +1474,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -1440,7 +1491,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -1453,7 +1504,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
@@ -1466,7 +1517,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75">
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -1479,7 +1530,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75">
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
@@ -1492,7 +1543,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -1505,7 +1556,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75">
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -1518,7 +1569,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75">
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
@@ -1531,7 +1582,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
@@ -1544,7 +1595,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75">
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
@@ -1557,7 +1608,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75">
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
         <v>27</v>
       </c>
@@ -1569,7 +1620,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75">
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
@@ -1579,7 +1630,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75">
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
         <v>32</v>
@@ -1589,7 +1640,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75">
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="6" t="s">
         <v>34</v>
@@ -1599,7 +1650,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="18.75">
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="6" t="s">
         <v>36</v>
@@ -1609,7 +1660,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="18.75">
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
         <v>38</v>
@@ -1619,7 +1670,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.75">
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="6" t="s">
         <v>40</v>
@@ -1629,7 +1680,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75">
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="6" t="s">
         <v>42</v>
@@ -1639,7 +1690,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="18.75">
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="6" t="s">
         <v>44</v>
@@ -1649,7 +1700,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="18.75">
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="6" t="s">
         <v>46</v>
@@ -1659,7 +1710,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="18.75">
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
         <v>48</v>
       </c>
@@ -1671,7 +1722,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="18.75">
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="6" t="s">
         <v>51</v>
@@ -1681,7 +1732,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="18.75">
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="4" t="s">
         <v>53</v>
@@ -1694,7 +1745,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="18.75">
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="4" t="s">
         <v>55</v>
@@ -1707,7 +1758,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="18.75">
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="22"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
@@ -1717,7 +1768,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="18.75">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -1734,7 +1785,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="18.75">
-      <c r="B29" s="20"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="23"/>
       <c r="D29" s="8" t="s">
         <v>62</v>
@@ -1747,7 +1798,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="18.75">
-      <c r="B30" s="20"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="23"/>
       <c r="D30" s="8" t="s">
         <v>64</v>
@@ -1760,7 +1811,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="18.75">
-      <c r="B31" s="20"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="23"/>
       <c r="D31" s="8" t="s">
         <v>66</v>
@@ -1773,7 +1824,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="18.75">
-      <c r="B32" s="20"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="23"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
@@ -1786,7 +1837,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="B33" s="20"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="23"/>
       <c r="D33" s="8" t="s">
         <v>70</v>
@@ -1799,7 +1850,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75">
-      <c r="B34" s="20"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="23"/>
       <c r="D34" s="8" t="s">
         <v>72</v>
@@ -1812,7 +1863,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75">
-      <c r="B35" s="20"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="23" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1875,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75">
-      <c r="B36" s="20"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="23"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
@@ -1834,7 +1885,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75">
-      <c r="B37" s="20"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="23"/>
       <c r="D37" s="8" t="s">
         <v>76</v>
@@ -1844,7 +1895,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75">
-      <c r="B38" s="20"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="23"/>
       <c r="D38" s="8" t="s">
         <v>78</v>
@@ -1854,7 +1905,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75">
-      <c r="B39" s="20"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="23"/>
       <c r="D39" s="8" t="s">
         <v>80</v>
@@ -1864,7 +1915,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75">
-      <c r="B40" s="20"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="23"/>
       <c r="D40" s="8" t="s">
         <v>82</v>
@@ -1874,7 +1925,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75">
-      <c r="B41" s="20"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="23"/>
       <c r="D41" s="8" t="s">
         <v>84</v>
@@ -1884,7 +1935,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75">
-      <c r="B42" s="20"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="23"/>
       <c r="D42" s="8" t="s">
         <v>86</v>
@@ -1894,7 +1945,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75">
-      <c r="B43" s="20"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="23" t="s">
         <v>48</v>
       </c>
@@ -1906,7 +1957,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="B44" s="20"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="23"/>
       <c r="D44" s="8" t="s">
         <v>90</v>
@@ -1916,7 +1967,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="B45" s="20"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="23"/>
       <c r="D45" s="8" t="s">
         <v>55</v>
@@ -1926,7 +1977,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="B46" s="20"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="23"/>
       <c r="D46" s="8" t="s">
         <v>92</v>
@@ -1936,7 +1987,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75">
-      <c r="B47" s="20"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="9" t="s">
         <v>94</v>
       </c>
@@ -1949,7 +2000,7 @@
     </row>
     <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="2"/>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="20" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -1965,9 +2016,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.75">
+    <row r="49" spans="1:7" ht="18.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -1975,13 +2026,13 @@
       <c r="E49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.75">
+    <row r="50" spans="1:7" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="19"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="4" t="s">
         <v>101</v>
@@ -1989,13 +2040,13 @@
       <c r="E50" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18.75">
+    <row r="51" spans="1:7" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="4" t="s">
         <v>103</v>
@@ -2004,12 +2055,12 @@
         <v>104</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="18.75">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A52" s="2"/>
-      <c r="B52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="4" t="s">
         <v>105</v>
@@ -2017,13 +2068,16 @@
       <c r="E52" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="14" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="18.75">
+      <c r="G52" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="6" t="s">
         <v>21</v>
@@ -2031,13 +2085,13 @@
       <c r="E53" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18.75">
+    <row r="54" spans="1:7" ht="18.75">
       <c r="A54" s="2"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="6" t="s">
         <v>23</v>
@@ -2045,13 +2099,13 @@
       <c r="E54" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18.75">
+    <row r="55" spans="1:7" ht="18.75">
       <c r="A55" s="2"/>
-      <c r="B55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="6" t="s">
         <v>109</v>
@@ -2059,13 +2113,13 @@
       <c r="E55" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="90">
+    <row r="56" spans="1:7" ht="45">
       <c r="A56" s="2"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="6" t="s">
         <v>111</v>
@@ -2074,12 +2128,15 @@
         <v>112</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18.75">
+        <v>257</v>
+      </c>
+      <c r="G56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75">
       <c r="A57" s="2"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="6" t="s">
         <v>113</v>
@@ -2087,13 +2144,13 @@
       <c r="E57" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18.75">
+      <c r="F57" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75">
       <c r="A58" s="2"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="21" t="s">
         <v>27</v>
       </c>
@@ -2104,9 +2161,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18.75">
+    <row r="59" spans="1:7" ht="18.75">
       <c r="A59" s="2"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="6" t="s">
         <v>117</v>
@@ -2115,9 +2172,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75">
+    <row r="60" spans="1:7" ht="18.75">
       <c r="A60" s="2"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="4" t="s">
         <v>119</v>
@@ -2126,9 +2183,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75">
+    <row r="61" spans="1:7" ht="18.75">
       <c r="A61" s="2"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="6" t="s">
         <v>121</v>
@@ -2137,9 +2194,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1">
+    <row r="62" spans="1:7" ht="18" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="6" t="s">
         <v>34</v>
@@ -2148,9 +2205,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1">
+    <row r="63" spans="1:7" ht="18" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="4" t="s">
         <v>124</v>
@@ -2159,9 +2216,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1">
+    <row r="64" spans="1:7" ht="18" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="6" t="s">
         <v>126</v>
@@ -2170,9 +2227,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18" customHeight="1">
+    <row r="65" spans="1:7" ht="18" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="6" t="s">
         <v>128</v>
@@ -2181,9 +2238,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18" customHeight="1">
+    <row r="66" spans="1:7" ht="18" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="6" t="s">
         <v>130</v>
@@ -2192,9 +2249,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18" customHeight="1">
+    <row r="67" spans="1:7" ht="18" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="6" t="s">
         <v>132</v>
@@ -2203,9 +2260,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18" customHeight="1">
+    <row r="68" spans="1:7" ht="18" customHeight="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="21" t="s">
         <v>48</v>
       </c>
@@ -2216,9 +2273,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18" customHeight="1">
+    <row r="69" spans="1:7" ht="18" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="6" t="s">
         <v>136</v>
@@ -2227,9 +2284,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18" customHeight="1">
+    <row r="70" spans="1:7" ht="18" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="21"/>
       <c r="D70" s="4" t="s">
         <v>51</v>
@@ -2238,9 +2295,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18" customHeight="1">
+    <row r="71" spans="1:7" ht="18" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="21"/>
       <c r="D71" s="4" t="s">
         <v>138</v>
@@ -2249,9 +2306,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18" customHeight="1">
+    <row r="72" spans="1:7" ht="18" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="21"/>
       <c r="D72" s="4" t="s">
         <v>140</v>
@@ -2260,9 +2317,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18" customHeight="1">
+    <row r="73" spans="1:7" ht="18" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C73" s="21" t="s">
@@ -2274,19 +2331,25 @@
       <c r="E73" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.75">
-      <c r="B74" s="19"/>
+      <c r="F73" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75">
+      <c r="B74" s="20"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.75">
-      <c r="B75" s="19"/>
+      <c r="F74" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75">
+      <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="4" t="s">
         <v>145</v>
@@ -2294,9 +2357,15 @@
       <c r="E75" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.75">
-      <c r="B76" s="19"/>
+      <c r="F75" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.75">
+      <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="4" t="s">
         <v>147</v>
@@ -2304,9 +2373,15 @@
       <c r="E76" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.75">
-      <c r="B77" s="19"/>
+      <c r="F76" t="s">
+        <v>252</v>
+      </c>
+      <c r="G76" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75">
+      <c r="B77" s="20"/>
       <c r="C77" s="21"/>
       <c r="D77" s="4" t="s">
         <v>149</v>
@@ -2314,9 +2389,15 @@
       <c r="E77" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="18.75">
-      <c r="B78" s="19"/>
+      <c r="F77" t="s">
+        <v>251</v>
+      </c>
+      <c r="G77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75">
+      <c r="B78" s="20"/>
       <c r="C78" s="21"/>
       <c r="D78" s="4" t="s">
         <v>151</v>
@@ -2324,9 +2405,12 @@
       <c r="E78" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.75">
-      <c r="B79" s="19"/>
+      <c r="F78" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75">
+      <c r="B79" s="20"/>
       <c r="C79" s="21" t="s">
         <v>27</v>
       </c>
@@ -2337,8 +2421,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.75">
-      <c r="B80" s="19"/>
+    <row r="80" spans="1:7" ht="18.75">
+      <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="6" t="s">
         <v>155</v>
@@ -2348,7 +2432,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="18.75">
-      <c r="B81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="4" t="s">
         <v>157</v>
@@ -2358,7 +2442,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="18.75">
-      <c r="B82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="6" t="s">
         <v>159</v>
@@ -2368,7 +2452,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="18.75">
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="6" t="s">
         <v>161</v>
@@ -2378,7 +2462,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="18.75">
-      <c r="B84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="4" t="s">
         <v>163</v>
@@ -2388,7 +2472,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="18.75">
-      <c r="B85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="6" t="s">
         <v>78</v>
@@ -2398,7 +2482,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="18.75">
-      <c r="B86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="6" t="s">
         <v>166</v>
@@ -2408,7 +2492,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="18.75">
-      <c r="B87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="6" t="s">
         <v>168</v>
@@ -2418,7 +2502,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="18.75">
-      <c r="B88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="6" t="s">
         <v>170</v>
@@ -2428,7 +2512,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="18.75">
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="6" t="s">
         <v>172</v>
@@ -2438,7 +2522,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="18.75">
-      <c r="B90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="21"/>
       <c r="D90" s="6" t="s">
         <v>174</v>
@@ -2448,7 +2532,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="18.75">
-      <c r="B91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="4" t="s">
         <v>176</v>
@@ -2458,7 +2542,7 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="18.75">
-      <c r="B92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="4" t="s">
         <v>178</v>
@@ -2468,7 +2552,7 @@
       </c>
     </row>
     <row r="93" spans="2:5" ht="18.75">
-      <c r="B93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="4" t="s">
         <v>180</v>
@@ -2478,7 +2562,7 @@
       </c>
     </row>
     <row r="94" spans="2:5" ht="18.75">
-      <c r="B94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="21" t="s">
         <v>48</v>
       </c>
@@ -2490,7 +2574,7 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="18.75">
-      <c r="B95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="6" t="s">
         <v>182</v>
@@ -2500,7 +2584,7 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="18.75">
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="4" t="s">
         <v>184</v>
@@ -2509,8 +2593,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="18.75">
-      <c r="B97" s="19"/>
+    <row r="97" spans="2:6" ht="18.75">
+      <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="4" t="s">
         <v>186</v>
@@ -2519,8 +2603,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="18.75">
-      <c r="B98" s="19" t="s">
+    <row r="98" spans="2:6" ht="18.75">
+      <c r="B98" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C98" s="21" t="s">
@@ -2532,9 +2616,12 @@
       <c r="E98" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" ht="18.75">
-      <c r="B99" s="19"/>
+      <c r="F98" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="18.75">
+      <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="5" t="s">
         <v>9</v>
@@ -2542,9 +2629,12 @@
       <c r="E99" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" ht="18.75">
-      <c r="B100" s="19"/>
+      <c r="F99" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="18.75">
+      <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="4" t="s">
         <v>101</v>
@@ -2552,9 +2642,12 @@
       <c r="E100" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" ht="18.75">
-      <c r="B101" s="19"/>
+      <c r="F100" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="18.75">
+      <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="6" t="s">
         <v>103</v>
@@ -2562,9 +2655,12 @@
       <c r="E101" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" ht="18.75">
-      <c r="B102" s="19"/>
+      <c r="F101" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="18.75">
+      <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="6" t="s">
         <v>21</v>
@@ -2572,9 +2668,12 @@
       <c r="E102" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" ht="18.75">
-      <c r="B103" s="19"/>
+      <c r="F102" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="18.75">
+      <c r="B103" s="20"/>
       <c r="C103" s="21" t="s">
         <v>27</v>
       </c>
@@ -2585,8 +2684,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="18.75">
-      <c r="B104" s="19"/>
+    <row r="104" spans="2:6" ht="18.75">
+      <c r="B104" s="20"/>
       <c r="C104" s="21"/>
       <c r="D104" s="6" t="s">
         <v>28</v>
@@ -2595,8 +2694,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="18.75">
-      <c r="B105" s="19"/>
+    <row r="105" spans="2:6" ht="18.75">
+      <c r="B105" s="20"/>
       <c r="C105" s="21"/>
       <c r="D105" s="4" t="s">
         <v>32</v>
@@ -2605,8 +2704,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="18.75">
-      <c r="B106" s="19"/>
+    <row r="106" spans="2:6" ht="18.75">
+      <c r="B106" s="20"/>
       <c r="C106" s="21"/>
       <c r="D106" s="6" t="s">
         <v>195</v>
@@ -2615,8 +2714,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="18.75">
-      <c r="B107" s="19"/>
+    <row r="107" spans="2:6" ht="18.75">
+      <c r="B107" s="20"/>
       <c r="C107" s="21"/>
       <c r="D107" s="6" t="s">
         <v>197</v>
@@ -2625,8 +2724,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="18.75">
-      <c r="B108" s="19"/>
+    <row r="108" spans="2:6" ht="18.75">
+      <c r="B108" s="20"/>
       <c r="C108" s="21"/>
       <c r="D108" s="4" t="s">
         <v>199</v>
@@ -2635,8 +2734,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="18.75">
-      <c r="B109" s="19"/>
+    <row r="109" spans="2:6" ht="18.75">
+      <c r="B109" s="20"/>
       <c r="C109" s="21"/>
       <c r="D109" s="6" t="s">
         <v>40</v>
@@ -2645,8 +2744,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="18.75">
-      <c r="B110" s="19"/>
+    <row r="110" spans="2:6" ht="18.75">
+      <c r="B110" s="20"/>
       <c r="C110" s="21"/>
       <c r="D110" s="6" t="s">
         <v>201</v>
@@ -2655,8 +2754,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="18.75">
-      <c r="B111" s="19"/>
+    <row r="111" spans="2:6" ht="18.75">
+      <c r="B111" s="20"/>
       <c r="C111" s="21"/>
       <c r="D111" s="6" t="s">
         <v>203</v>
@@ -2665,8 +2764,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="18.75">
-      <c r="B112" s="19"/>
+    <row r="112" spans="2:6" ht="18.75">
+      <c r="B112" s="20"/>
       <c r="C112" s="21"/>
       <c r="D112" s="6" t="s">
         <v>205</v>
@@ -2676,7 +2775,7 @@
       </c>
     </row>
     <row r="113" spans="2:5" ht="18.75">
-      <c r="B113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="21"/>
       <c r="D113" s="4" t="s">
         <v>207</v>
@@ -2686,7 +2785,7 @@
       </c>
     </row>
     <row r="114" spans="2:5" ht="18.75">
-      <c r="B114" s="19"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="21"/>
       <c r="D114" s="6" t="s">
         <v>209</v>
@@ -2696,7 +2795,7 @@
       </c>
     </row>
     <row r="115" spans="2:5" ht="18.75">
-      <c r="B115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="21"/>
       <c r="D115" s="6" t="s">
         <v>211</v>
@@ -2706,7 +2805,7 @@
       </c>
     </row>
     <row r="116" spans="2:5" ht="18.75">
-      <c r="B116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="21"/>
       <c r="D116" s="6" t="s">
         <v>213</v>
@@ -2716,7 +2815,7 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="18.75">
-      <c r="B117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="21"/>
       <c r="D117" s="4" t="s">
         <v>215</v>
@@ -2726,7 +2825,7 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="18.75">
-      <c r="B118" s="19"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="21" t="s">
         <v>48</v>
       </c>
@@ -2738,7 +2837,7 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="18.75">
-      <c r="B119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="21"/>
       <c r="D119" s="6" t="s">
         <v>217</v>
@@ -2748,7 +2847,7 @@
       </c>
     </row>
     <row r="120" spans="2:5" ht="18.75">
-      <c r="B120" s="19"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="21"/>
       <c r="D120" s="4" t="s">
         <v>219</v>
@@ -2758,7 +2857,7 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="18.75">
-      <c r="B121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="21"/>
       <c r="D121" s="4" t="s">
         <v>221</v>
@@ -2768,7 +2867,7 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="18.75">
-      <c r="B122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="21"/>
       <c r="D122" s="4" t="s">
         <v>223</v>
@@ -2779,6 +2878,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="B28:B47"/>
+    <mergeCell ref="B48:B72"/>
+    <mergeCell ref="B73:B97"/>
     <mergeCell ref="B98:B122"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C22"/>
@@ -2795,133 +2899,128 @@
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="C103:C117"/>
     <mergeCell ref="C118:C122"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="B28:B47"/>
-    <mergeCell ref="B48:B72"/>
-    <mergeCell ref="B73:B97"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E61" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E52" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E55" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E60" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E62" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E64" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E65" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E69" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E59" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E63" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E66" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E67" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E71" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E58" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E56" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E68" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E70" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E72" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E94" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E95" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E96" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E97" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E73" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E75" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E76" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E74" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E78" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E79" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E81" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E88" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E90" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E80" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E83" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E84" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E85" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E86" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E87" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E89" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E91" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E92" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E93" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E3" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E4" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E5" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E6" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E7" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E8" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E9" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E10" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E11" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E12" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E13" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E14" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E15" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E16" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E17" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E18" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E19" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E20" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E21" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E22" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E23" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E24" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E25" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E26" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E27" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E100" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E102" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E103" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E104" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E105" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E106" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E107" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E108" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E109" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E110" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E114" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E111" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E112" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E113" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E115" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E116" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E117" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E118" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E119" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E120" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E121" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E122" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E29" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E32" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E31" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E30" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E33" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E41" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E40" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E37" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E42" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E28" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E34" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E36" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E38" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E39" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E35" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E44" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E45" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E43" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E47" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E46" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E54" r:id="rId1"/>
+    <hyperlink ref="E61" r:id="rId2"/>
+    <hyperlink ref="E48" r:id="rId3"/>
+    <hyperlink ref="E52" r:id="rId4"/>
+    <hyperlink ref="E55" r:id="rId5"/>
+    <hyperlink ref="E60" r:id="rId6"/>
+    <hyperlink ref="E62" r:id="rId7"/>
+    <hyperlink ref="E64" r:id="rId8"/>
+    <hyperlink ref="E65" r:id="rId9"/>
+    <hyperlink ref="E69" r:id="rId10"/>
+    <hyperlink ref="E59" r:id="rId11"/>
+    <hyperlink ref="E53" r:id="rId12"/>
+    <hyperlink ref="E49" r:id="rId13"/>
+    <hyperlink ref="E63" r:id="rId14"/>
+    <hyperlink ref="E51" r:id="rId15"/>
+    <hyperlink ref="E50" r:id="rId16"/>
+    <hyperlink ref="E66" r:id="rId17"/>
+    <hyperlink ref="E67" r:id="rId18"/>
+    <hyperlink ref="E57" r:id="rId19"/>
+    <hyperlink ref="E71" r:id="rId20"/>
+    <hyperlink ref="E58" r:id="rId21"/>
+    <hyperlink ref="E56" r:id="rId22"/>
+    <hyperlink ref="E68" r:id="rId23"/>
+    <hyperlink ref="E70" r:id="rId24"/>
+    <hyperlink ref="E72" r:id="rId25"/>
+    <hyperlink ref="E94" r:id="rId26"/>
+    <hyperlink ref="E95" r:id="rId27"/>
+    <hyperlink ref="E96" r:id="rId28"/>
+    <hyperlink ref="E97" r:id="rId29"/>
+    <hyperlink ref="E73" r:id="rId30"/>
+    <hyperlink ref="E75" r:id="rId31"/>
+    <hyperlink ref="E76" r:id="rId32"/>
+    <hyperlink ref="E77" r:id="rId33"/>
+    <hyperlink ref="E74" r:id="rId34"/>
+    <hyperlink ref="E78" r:id="rId35"/>
+    <hyperlink ref="E79" r:id="rId36"/>
+    <hyperlink ref="E81" r:id="rId37"/>
+    <hyperlink ref="E82" r:id="rId38"/>
+    <hyperlink ref="E88" r:id="rId39"/>
+    <hyperlink ref="E90" r:id="rId40"/>
+    <hyperlink ref="E80" r:id="rId41"/>
+    <hyperlink ref="E83" r:id="rId42"/>
+    <hyperlink ref="E84" r:id="rId43"/>
+    <hyperlink ref="E85" r:id="rId44"/>
+    <hyperlink ref="E86" r:id="rId45"/>
+    <hyperlink ref="E87" r:id="rId46"/>
+    <hyperlink ref="E89" r:id="rId47"/>
+    <hyperlink ref="E91" r:id="rId48"/>
+    <hyperlink ref="E92" r:id="rId49"/>
+    <hyperlink ref="E93" r:id="rId50"/>
+    <hyperlink ref="E3" r:id="rId51"/>
+    <hyperlink ref="E4" r:id="rId52"/>
+    <hyperlink ref="E5" r:id="rId53"/>
+    <hyperlink ref="E6" r:id="rId54"/>
+    <hyperlink ref="E7" r:id="rId55"/>
+    <hyperlink ref="E8" r:id="rId56"/>
+    <hyperlink ref="E9" r:id="rId57"/>
+    <hyperlink ref="E10" r:id="rId58"/>
+    <hyperlink ref="E11" r:id="rId59"/>
+    <hyperlink ref="E12" r:id="rId60"/>
+    <hyperlink ref="E13" r:id="rId61"/>
+    <hyperlink ref="E14" r:id="rId62"/>
+    <hyperlink ref="E15" r:id="rId63"/>
+    <hyperlink ref="E16" r:id="rId64"/>
+    <hyperlink ref="E17" r:id="rId65"/>
+    <hyperlink ref="E18" r:id="rId66"/>
+    <hyperlink ref="E19" r:id="rId67"/>
+    <hyperlink ref="E20" r:id="rId68"/>
+    <hyperlink ref="E21" r:id="rId69"/>
+    <hyperlink ref="E22" r:id="rId70"/>
+    <hyperlink ref="E23" r:id="rId71"/>
+    <hyperlink ref="E24" r:id="rId72"/>
+    <hyperlink ref="E25" r:id="rId73"/>
+    <hyperlink ref="E26" r:id="rId74"/>
+    <hyperlink ref="E27" r:id="rId75"/>
+    <hyperlink ref="E98" r:id="rId76"/>
+    <hyperlink ref="E99" r:id="rId77"/>
+    <hyperlink ref="E100" r:id="rId78"/>
+    <hyperlink ref="E101" r:id="rId79"/>
+    <hyperlink ref="E102" r:id="rId80"/>
+    <hyperlink ref="E103" r:id="rId81"/>
+    <hyperlink ref="E104" r:id="rId82"/>
+    <hyperlink ref="E105" r:id="rId83"/>
+    <hyperlink ref="E106" r:id="rId84"/>
+    <hyperlink ref="E107" r:id="rId85"/>
+    <hyperlink ref="E108" r:id="rId86"/>
+    <hyperlink ref="E109" r:id="rId87"/>
+    <hyperlink ref="E110" r:id="rId88"/>
+    <hyperlink ref="E114" r:id="rId89"/>
+    <hyperlink ref="E111" r:id="rId90"/>
+    <hyperlink ref="E112" r:id="rId91"/>
+    <hyperlink ref="E113" r:id="rId92"/>
+    <hyperlink ref="E115" r:id="rId93"/>
+    <hyperlink ref="E116" r:id="rId94"/>
+    <hyperlink ref="E117" r:id="rId95"/>
+    <hyperlink ref="E118" r:id="rId96"/>
+    <hyperlink ref="E119" r:id="rId97"/>
+    <hyperlink ref="E120" r:id="rId98"/>
+    <hyperlink ref="E121" r:id="rId99"/>
+    <hyperlink ref="E122" r:id="rId100"/>
+    <hyperlink ref="E29" r:id="rId101"/>
+    <hyperlink ref="E32" r:id="rId102"/>
+    <hyperlink ref="E31" r:id="rId103"/>
+    <hyperlink ref="E30" r:id="rId104"/>
+    <hyperlink ref="E33" r:id="rId105"/>
+    <hyperlink ref="E41" r:id="rId106"/>
+    <hyperlink ref="E40" r:id="rId107"/>
+    <hyperlink ref="E37" r:id="rId108"/>
+    <hyperlink ref="E42" r:id="rId109"/>
+    <hyperlink ref="E28" r:id="rId110"/>
+    <hyperlink ref="E34" r:id="rId111"/>
+    <hyperlink ref="E36" r:id="rId112"/>
+    <hyperlink ref="E38" r:id="rId113"/>
+    <hyperlink ref="E39" r:id="rId114"/>
+    <hyperlink ref="E35" r:id="rId115"/>
+    <hyperlink ref="E44" r:id="rId116"/>
+    <hyperlink ref="E45" r:id="rId117"/>
+    <hyperlink ref="E43" r:id="rId118"/>
+    <hyperlink ref="E47" r:id="rId119"/>
+    <hyperlink ref="E46" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>

--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$72</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="275">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -810,44 +811,78 @@
     <t>94. Binary Tree Inorder Traversal</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>O(mn)?</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Maximum Average Subarray II 
 </t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>washer</t>
+  </si>
+  <si>
+    <t>refregrator</t>
+  </si>
+  <si>
+    <t>part1</t>
+  </si>
+  <si>
+    <t>part2</t>
+  </si>
+  <si>
+    <t>part3</t>
+  </si>
+  <si>
+    <t>dryer</t>
+  </si>
+  <si>
+    <t>57. Insert Interval</t>
+  </si>
+  <si>
+    <t>525. Contiguous Array</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>23. Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>139. Word Break</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>13. Roman to Integer</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>类似：242. Valid Anagram 49. Group Anagrams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -912,26 +947,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +975,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,94 +1085,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1443,19 +1462,19 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" customWidth="1"/>
     <col min="5" max="5" width="107.5703125" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.1" customHeight="1">
+    <row r="1" spans="1:7" ht="41.1" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1473,11 +1492,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1490,9 +1509,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+    <row r="4" spans="1:7" ht="18.75">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1503,9 +1522,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+    <row r="5" spans="1:7" ht="18.75">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1516,9 +1535,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+    <row r="6" spans="1:7" ht="18.75">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1529,9 +1548,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+    <row r="7" spans="1:7" ht="18.75">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1542,9 +1561,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
+    <row r="8" spans="1:7" ht="18.75">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1555,9 +1574,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+    <row r="9" spans="1:7" ht="18.75">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1568,9 +1587,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+    <row r="10" spans="1:7" ht="18.75">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1581,22 +1600,22 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+    <row r="11" spans="1:7" ht="18.75">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+    <row r="12" spans="1:7" ht="18.75">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1607,9 +1626,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+    <row r="13" spans="1:7" ht="18.75">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1618,100 +1637,139 @@
       <c r="E13" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="F13" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+      <c r="F14" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
+      <c r="F15" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="18.75">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="F16" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18.75">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="18.75">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="F17" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18.75">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="18.75">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="F18" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18.75">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="18.75">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="F19" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18.75">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="18.75">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="F20" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18.75">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="18.75">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="F21" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18.75">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="18.75">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="F22" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18.75">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1720,58 +1778,57 @@
       <c r="E23" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="18.75">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" ht="18.75">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="18.75">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" ht="18.75">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I25">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="18.75">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" ht="18.75">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I26">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="18.75">
-      <c r="B27" s="20"/>
-      <c r="C27" s="22"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" ht="18.75">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="18.75">
-      <c r="B28" s="26" t="s">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" ht="18.75">
+      <c r="B28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1784,9 +1841,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="18.75">
-      <c r="B29" s="26"/>
-      <c r="C29" s="23"/>
+    <row r="29" spans="2:7" ht="18.75">
+      <c r="B29" s="24"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="8" t="s">
         <v>62</v>
       </c>
@@ -1797,9 +1854,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="18.75">
-      <c r="B30" s="26"/>
-      <c r="C30" s="23"/>
+    <row r="30" spans="2:7" ht="18.75">
+      <c r="B30" s="24"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="8" t="s">
         <v>64</v>
       </c>
@@ -1810,9 +1867,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="18.75">
-      <c r="B31" s="26"/>
-      <c r="C31" s="23"/>
+    <row r="31" spans="2:7" ht="18.75">
+      <c r="B31" s="24"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="8" t="s">
         <v>66</v>
       </c>
@@ -1823,9 +1880,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="18.75">
-      <c r="B32" s="26"/>
-      <c r="C32" s="23"/>
+    <row r="32" spans="2:7" ht="18.75">
+      <c r="B32" s="24"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
@@ -1837,8 +1894,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
@@ -1850,8 +1907,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75">
-      <c r="B34" s="26"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
@@ -1863,8 +1920,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75">
-      <c r="B35" s="26"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1873,80 +1930,88 @@
       <c r="E35" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="18.75">
-      <c r="B36" s="26"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="18.75">
-      <c r="B37" s="26"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" ht="18.75">
-      <c r="B38" s="26"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>79</v>
       </c>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" ht="18.75">
-      <c r="B39" s="26"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="18.75">
-      <c r="B40" s="26"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="18.75">
-      <c r="B41" s="26"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>85</v>
       </c>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" ht="18.75">
-      <c r="B42" s="26"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>87</v>
       </c>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="18.75">
-      <c r="B43" s="26"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -1955,39 +2020,43 @@
       <c r="E43" s="11" t="s">
         <v>89</v>
       </c>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="B44" s="26"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>91</v>
       </c>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="B45" s="26"/>
-      <c r="C45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="B46" s="26"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>93</v>
       </c>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="18.75">
-      <c r="B47" s="26"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
         <v>94</v>
       </c>
@@ -1997,13 +2066,14 @@
       <c r="E47" s="11" t="s">
         <v>96</v>
       </c>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="2"/>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2016,24 +2086,24 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75">
+    <row r="49" spans="1:8" ht="18.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75">
+    <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="4" t="s">
         <v>101</v>
       </c>
@@ -2044,10 +2114,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75">
+    <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="4" t="s">
         <v>103</v>
       </c>
@@ -2058,10 +2128,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" ht="18.75">
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="18.75">
       <c r="A52" s="2"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="4" t="s">
         <v>105</v>
       </c>
@@ -2072,41 +2142,44 @@
         <v>245</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" ht="18.75">
+        <v>256</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="18.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75">
+    <row r="54" spans="1:8" ht="18.75">
       <c r="A54" s="2"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75">
+    <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="2"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="6" t="s">
         <v>109</v>
       </c>
@@ -2117,41 +2190,41 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="45">
+    <row r="56" spans="1:8" ht="45">
       <c r="A56" s="2"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>257</v>
+      <c r="F56" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="G56" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="18.75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75">
       <c r="A57" s="2"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75">
+    <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="2"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2160,110 +2233,120 @@
       <c r="E58" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="18.75">
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="2"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="18.75">
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="2"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="18.75">
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="2"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="18" customHeight="1">
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" ht="18" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="18" customHeight="1">
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:8" ht="18" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="18" customHeight="1">
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:8" ht="18" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="6" t="s">
         <v>126</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="18" customHeight="1">
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" ht="18" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="18" customHeight="1">
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" ht="18" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="6" t="s">
         <v>130</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1">
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" ht="18" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="6" t="s">
         <v>132</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1">
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" ht="18" customHeight="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2272,57 +2355,62 @@
       <c r="E68" s="10" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="18" customHeight="1">
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" ht="18" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="18" customHeight="1">
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:6" ht="18" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1">
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" ht="18" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="18" customHeight="1">
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" ht="18" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="18" customHeight="1">
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" ht="18" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -2335,70 +2423,61 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75">
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="19" t="s">
+    <row r="74" spans="1:6" ht="18.75">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75">
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
+    <row r="75" spans="1:6" ht="18.75">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="G75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="18.75">
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="18.75">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="4" t="s">
         <v>147</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="G76" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="18.75">
-      <c r="B77" s="20"/>
-      <c r="C77" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="18.75">
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G77" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="18.75">
-      <c r="B78" s="20"/>
-      <c r="C78" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="18.75">
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="4" t="s">
         <v>151</v>
       </c>
@@ -2409,9 +2488,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75">
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+    <row r="79" spans="1:6" ht="18.75">
+      <c r="B79" s="18"/>
+      <c r="C79" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -2420,150 +2499,165 @@
       <c r="E79" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="18.75">
-      <c r="B80" s="20"/>
-      <c r="C80" s="21"/>
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6" ht="18.75">
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" ht="18.75">
-      <c r="B81" s="20"/>
-      <c r="C81" s="21"/>
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="2:6" ht="18.75">
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="4" t="s">
         <v>157</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" ht="18.75">
-      <c r="B82" s="20"/>
-      <c r="C82" s="21"/>
+      <c r="F81" s="14"/>
+    </row>
+    <row r="82" spans="2:6" ht="18.75">
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="6" t="s">
         <v>159</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" ht="18.75">
-      <c r="B83" s="20"/>
-      <c r="C83" s="21"/>
+      <c r="F82" s="14"/>
+    </row>
+    <row r="83" spans="2:6" ht="18.75">
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" ht="18.75">
-      <c r="B84" s="20"/>
-      <c r="C84" s="21"/>
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="2:6" ht="18.75">
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" ht="18.75">
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
+      <c r="F84" s="14"/>
+    </row>
+    <row r="85" spans="2:6" ht="18.75">
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" ht="18.75">
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
+      <c r="F85" s="14"/>
+    </row>
+    <row r="86" spans="2:6" ht="18.75">
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="6" t="s">
         <v>166</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" ht="18.75">
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
+      <c r="F86" s="14"/>
+    </row>
+    <row r="87" spans="2:6" ht="18.75">
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="6" t="s">
         <v>168</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" ht="18.75">
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="2:6" ht="18.75">
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="6" t="s">
         <v>170</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" ht="18.75">
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="2:6" ht="18.75">
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="6" t="s">
         <v>172</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" ht="18.75">
-      <c r="B90" s="20"/>
-      <c r="C90" s="21"/>
+      <c r="F89" s="14"/>
+    </row>
+    <row r="90" spans="2:6" ht="18.75">
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="6" t="s">
         <v>174</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" ht="18.75">
-      <c r="B91" s="20"/>
-      <c r="C91" s="21"/>
+      <c r="F90" s="14"/>
+    </row>
+    <row r="91" spans="2:6" ht="18.75">
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" ht="18.75">
-      <c r="B92" s="20"/>
-      <c r="C92" s="21"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="2:6" ht="18.75">
+      <c r="B92" s="18"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" ht="18.75">
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="2:6" ht="18.75">
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" ht="18.75">
-      <c r="B94" s="20"/>
-      <c r="C94" s="21" t="s">
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="2:6" ht="18.75">
+      <c r="B94" s="18"/>
+      <c r="C94" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -2572,42 +2666,46 @@
       <c r="E94" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" ht="18.75">
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
+      <c r="F94" s="14"/>
+    </row>
+    <row r="95" spans="2:6" ht="18.75">
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="6" t="s">
         <v>182</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" ht="18.75">
-      <c r="B96" s="20"/>
-      <c r="C96" s="21"/>
+      <c r="F95" s="14"/>
+    </row>
+    <row r="96" spans="2:6" ht="18.75">
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="4" t="s">
         <v>184</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>185</v>
       </c>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="2:6" ht="18.75">
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
       <c r="D97" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>187</v>
       </c>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="2:6" ht="18.75">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2621,60 +2719,60 @@
       </c>
     </row>
     <row r="99" spans="2:6" ht="18.75">
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="18.75">
-      <c r="B100" s="20"/>
-      <c r="C100" s="21"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="14" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="18.75">
-      <c r="B101" s="20"/>
-      <c r="C101" s="21"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F101" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="18.75">
-      <c r="B102" s="20"/>
-      <c r="C102" s="21"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F102" s="18" t="s">
+      <c r="F102" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="18.75">
-      <c r="B103" s="20"/>
-      <c r="C103" s="21" t="s">
+      <c r="B103" s="18"/>
+      <c r="C103" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -2685,8 +2783,8 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="18.75">
-      <c r="B104" s="20"/>
-      <c r="C104" s="21"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="6" t="s">
         <v>28</v>
       </c>
@@ -2695,8 +2793,8 @@
       </c>
     </row>
     <row r="105" spans="2:6" ht="18.75">
-      <c r="B105" s="20"/>
-      <c r="C105" s="21"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="4" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2803,8 @@
       </c>
     </row>
     <row r="106" spans="2:6" ht="18.75">
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="6" t="s">
         <v>195</v>
       </c>
@@ -2715,8 +2813,8 @@
       </c>
     </row>
     <row r="107" spans="2:6" ht="18.75">
-      <c r="B107" s="20"/>
-      <c r="C107" s="21"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="6" t="s">
         <v>197</v>
       </c>
@@ -2725,8 +2823,8 @@
       </c>
     </row>
     <row r="108" spans="2:6" ht="18.75">
-      <c r="B108" s="20"/>
-      <c r="C108" s="21"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="4" t="s">
         <v>199</v>
       </c>
@@ -2735,8 +2833,8 @@
       </c>
     </row>
     <row r="109" spans="2:6" ht="18.75">
-      <c r="B109" s="20"/>
-      <c r="C109" s="21"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="6" t="s">
         <v>40</v>
       </c>
@@ -2745,8 +2843,8 @@
       </c>
     </row>
     <row r="110" spans="2:6" ht="18.75">
-      <c r="B110" s="20"/>
-      <c r="C110" s="21"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="6" t="s">
         <v>201</v>
       </c>
@@ -2755,8 +2853,8 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="18.75">
-      <c r="B111" s="20"/>
-      <c r="C111" s="21"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="6" t="s">
         <v>203</v>
       </c>
@@ -2765,8 +2863,8 @@
       </c>
     </row>
     <row r="112" spans="2:6" ht="18.75">
-      <c r="B112" s="20"/>
-      <c r="C112" s="21"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="6" t="s">
         <v>205</v>
       </c>
@@ -2775,8 +2873,8 @@
       </c>
     </row>
     <row r="113" spans="2:5" ht="18.75">
-      <c r="B113" s="20"/>
-      <c r="C113" s="21"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="4" t="s">
         <v>207</v>
       </c>
@@ -2785,8 +2883,8 @@
       </c>
     </row>
     <row r="114" spans="2:5" ht="18.75">
-      <c r="B114" s="20"/>
-      <c r="C114" s="21"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="6" t="s">
         <v>209</v>
       </c>
@@ -2795,8 +2893,8 @@
       </c>
     </row>
     <row r="115" spans="2:5" ht="18.75">
-      <c r="B115" s="20"/>
-      <c r="C115" s="21"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="6" t="s">
         <v>211</v>
       </c>
@@ -2805,8 +2903,8 @@
       </c>
     </row>
     <row r="116" spans="2:5" ht="18.75">
-      <c r="B116" s="20"/>
-      <c r="C116" s="21"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="6" t="s">
         <v>213</v>
       </c>
@@ -2815,8 +2913,8 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="18.75">
-      <c r="B117" s="20"/>
-      <c r="C117" s="21"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="4" t="s">
         <v>215</v>
       </c>
@@ -2825,8 +2923,8 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="18.75">
-      <c r="B118" s="20"/>
-      <c r="C118" s="21" t="s">
+      <c r="B118" s="18"/>
+      <c r="C118" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -2837,8 +2935,8 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="18.75">
-      <c r="B119" s="20"/>
-      <c r="C119" s="21"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="19"/>
       <c r="D119" s="6" t="s">
         <v>217</v>
       </c>
@@ -2847,8 +2945,8 @@
       </c>
     </row>
     <row r="120" spans="2:5" ht="18.75">
-      <c r="B120" s="20"/>
-      <c r="C120" s="21"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="4" t="s">
         <v>219</v>
       </c>
@@ -2857,8 +2955,8 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="18.75">
-      <c r="B121" s="20"/>
-      <c r="C121" s="21"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="4" t="s">
         <v>221</v>
       </c>
@@ -2867,8 +2965,8 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="18.75">
-      <c r="B122" s="20"/>
-      <c r="C122" s="21"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="4" t="s">
         <v>223</v>
       </c>
@@ -3025,4 +3123,98 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7">
+        <f>SUM(B1:B6)</f>
+        <v>3849</v>
+      </c>
+      <c r="H7">
+        <v>4125.25</v>
+      </c>
+      <c r="J7">
+        <v>1685.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="J8">
+        <v>2199.9899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="J9">
+        <v>256.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="J10">
+        <f>SUM(J7:J9)</f>
+        <v>4142.2599999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="282">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>421. 简化路径</t>
-  </si>
-  <si>
-    <t>http://www.qhnews.com/cysd/system/2017/08/22/012392015.shtml</t>
   </si>
   <si>
     <t>512. 解码方法</t>
@@ -871,6 +868,30 @@
   </si>
   <si>
     <t>类似：242. Valid Anagram 49. Group Anagrams</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>reverse-words-in-a-string-ii</t>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>445. Add Two Numbers II</t>
+  </si>
+  <si>
+    <t>71. Simplify Path</t>
+  </si>
+  <si>
+    <t>Inorder predecessor and successor for a given key in BST</t>
   </si>
 </sst>
 </file>
@@ -1451,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1462,7 +1483,7 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" customWidth="1"/>
     <col min="5" max="5" width="107.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.1" customHeight="1">
@@ -1489,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
@@ -1506,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
@@ -1519,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75">
@@ -1532,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75">
@@ -1545,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75">
@@ -1558,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75">
@@ -1571,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
@@ -1584,7 +1605,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75">
@@ -1597,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75">
@@ -1610,7 +1631,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75">
@@ -1623,7 +1644,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75">
@@ -1638,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75">
@@ -1651,7 +1672,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75">
@@ -1663,11 +1684,11 @@
       <c r="E15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>267</v>
+      <c r="F15" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75">
@@ -1680,7 +1701,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.75">
@@ -1693,7 +1714,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.75">
@@ -1706,7 +1727,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.75">
@@ -1719,7 +1740,7 @@
         <v>41</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18.75">
@@ -1732,7 +1753,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18.75">
@@ -1745,10 +1766,10 @@
         <v>45</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18.75">
@@ -1761,10 +1782,10 @@
         <v>47</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="18.75">
@@ -1838,7 +1859,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.75">
@@ -1851,7 +1872,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="18.75">
@@ -1864,7 +1885,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="18.75">
@@ -1877,7 +1898,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="18.75">
@@ -1890,7 +1911,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75">
@@ -1903,7 +1924,7 @@
         <v>71</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75">
@@ -1916,7 +1937,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75">
@@ -1930,7 +1951,9 @@
       <c r="E35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="17" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="18.75">
       <c r="B36" s="24"/>
@@ -1941,7 +1964,9 @@
       <c r="E36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="17" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="18.75">
       <c r="B37" s="24"/>
@@ -1952,7 +1977,9 @@
       <c r="E37" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="17" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="18.75">
       <c r="B38" s="24"/>
@@ -1961,53 +1988,63 @@
         <v>78</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="14"/>
+        <v>164</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="18.75">
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
       <c r="D39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" ht="18.75">
+      <c r="F39" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
       <c r="D40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="18.75">
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
       <c r="D41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="17" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="18.75">
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
       <c r="D42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="16" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="18.75">
       <c r="B43" s="24"/>
@@ -2015,10 +2052,10 @@
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="F43" s="14"/>
     </row>
@@ -2026,10 +2063,10 @@
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
       <c r="D44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="F44" s="14"/>
     </row>
@@ -2048,42 +2085,42 @@
       <c r="B46" s="24"/>
       <c r="C46" s="21"/>
       <c r="D46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="18.75">
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="2"/>
       <c r="B48" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="F48" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.75">
@@ -2094,10 +2131,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75">
@@ -2105,13 +2142,13 @@
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="F50" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75">
@@ -2119,13 +2156,13 @@
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F51" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="18.75">
@@ -2133,19 +2170,19 @@
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="F52" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" ht="18.75">
@@ -2156,10 +2193,10 @@
         <v>21</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75">
@@ -2170,10 +2207,10 @@
         <v>23</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75">
@@ -2181,13 +2218,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="F55" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="45">
@@ -2195,16 +2232,16 @@
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="F56" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" t="s">
         <v>255</v>
-      </c>
-      <c r="G56" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75">
@@ -2212,13 +2249,13 @@
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="F57" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75">
@@ -2228,10 +2265,10 @@
         <v>27</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="F58" s="14"/>
     </row>
@@ -2240,10 +2277,10 @@
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="F59" s="14"/>
     </row>
@@ -2252,10 +2289,10 @@
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="F60" s="14"/>
     </row>
@@ -2264,10 +2301,10 @@
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="F61" s="14"/>
     </row>
@@ -2279,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62" s="14"/>
     </row>
@@ -2288,10 +2325,10 @@
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="F63" s="14"/>
     </row>
@@ -2300,10 +2337,10 @@
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="F64" s="14"/>
     </row>
@@ -2312,10 +2349,10 @@
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="F65" s="14"/>
     </row>
@@ -2324,10 +2361,10 @@
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="F66" s="14"/>
     </row>
@@ -2336,10 +2373,10 @@
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="F67" s="14"/>
     </row>
@@ -2350,10 +2387,10 @@
         <v>48</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="F68" s="14"/>
     </row>
@@ -2362,10 +2399,10 @@
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="F69" s="14"/>
     </row>
@@ -2386,10 +2423,10 @@
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="F71" s="14"/>
     </row>
@@ -2398,29 +2435,29 @@
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" ht="18" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="F73" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18.75">
@@ -2433,59 +2470,59 @@
         <v>20</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75">
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="F75" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18.75">
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="F76" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18.75">
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="F77" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18.75">
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="F78" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18.75">
@@ -2494,10 +2531,10 @@
         <v>27</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="F79" s="14"/>
     </row>
@@ -2505,10 +2542,10 @@
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="F80" s="14"/>
     </row>
@@ -2516,10 +2553,10 @@
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="F81" s="14"/>
     </row>
@@ -2527,10 +2564,10 @@
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="F82" s="14"/>
     </row>
@@ -2538,10 +2575,10 @@
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
       <c r="D83" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="F83" s="14"/>
     </row>
@@ -2549,10 +2586,10 @@
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
       <c r="D84" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="F84" s="14"/>
     </row>
@@ -2563,7 +2600,7 @@
         <v>78</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F85" s="14"/>
     </row>
@@ -2571,10 +2608,10 @@
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
       <c r="D86" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="F86" s="14"/>
     </row>
@@ -2582,10 +2619,10 @@
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
       <c r="D87" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="F87" s="14"/>
     </row>
@@ -2593,10 +2630,10 @@
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
       <c r="D88" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="F88" s="14"/>
     </row>
@@ -2604,10 +2641,10 @@
       <c r="B89" s="18"/>
       <c r="C89" s="19"/>
       <c r="D89" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="F89" s="14"/>
     </row>
@@ -2615,10 +2652,10 @@
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
       <c r="D90" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="F90" s="14"/>
     </row>
@@ -2626,10 +2663,10 @@
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
       <c r="D91" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="F91" s="14"/>
     </row>
@@ -2637,10 +2674,10 @@
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
       <c r="D92" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="F92" s="14"/>
     </row>
@@ -2648,10 +2685,10 @@
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
       <c r="D93" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="F93" s="14"/>
     </row>
@@ -2661,10 +2698,10 @@
         <v>48</v>
       </c>
       <c r="D94" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="F94" s="14"/>
     </row>
@@ -2672,10 +2709,10 @@
       <c r="B95" s="18"/>
       <c r="C95" s="19"/>
       <c r="D95" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="F95" s="14"/>
     </row>
@@ -2683,10 +2720,10 @@
       <c r="B96" s="18"/>
       <c r="C96" s="19"/>
       <c r="D96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="F96" s="14"/>
     </row>
@@ -2694,28 +2731,28 @@
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
       <c r="D97" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="2:6" ht="18.75">
       <c r="B98" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E98" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E98" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="F98" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="18.75">
@@ -2728,33 +2765,33 @@
         <v>10</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="18.75">
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
       <c r="D100" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="18.75">
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
       <c r="D101" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="18.75">
@@ -2767,7 +2804,7 @@
         <v>22</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="18.75">
@@ -2776,10 +2813,10 @@
         <v>27</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="18.75">
@@ -2806,30 +2843,30 @@
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
       <c r="D106" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E106" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="18.75">
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
       <c r="D107" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="18.75">
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
       <c r="D108" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E108" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="18.75">
@@ -2846,80 +2883,80 @@
       <c r="B110" s="18"/>
       <c r="C110" s="19"/>
       <c r="D110" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="18.75">
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
       <c r="D111" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="18.75">
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
       <c r="D112" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="18.75">
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
       <c r="D113" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="18.75">
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
       <c r="D114" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E114" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="18.75">
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
       <c r="D115" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="18.75">
       <c r="B116" s="18"/>
       <c r="C116" s="19"/>
       <c r="D116" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="18.75">
       <c r="B117" s="18"/>
       <c r="C117" s="19"/>
       <c r="D117" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="18.75">
@@ -2928,50 +2965,50 @@
         <v>48</v>
       </c>
       <c r="D118" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E118" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="18.75">
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
       <c r="D119" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="18.75">
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
       <c r="D120" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="18.75">
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
       <c r="D121" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="18.75">
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
       <c r="D122" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +3167,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3140,7 +3177,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1">
         <v>2200</v>
@@ -3148,7 +3185,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2">
         <v>730</v>
@@ -3156,7 +3193,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -3164,7 +3201,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -3172,7 +3209,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5">
         <v>32</v>
@@ -3180,7 +3217,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6">
         <v>830</v>
@@ -3199,11 +3236,18 @@
       </c>
     </row>
     <row r="8" spans="1:10">
+      <c r="H8">
+        <v>1758.2</v>
+      </c>
       <c r="J8">
         <v>2199.9899999999998</v>
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="H9">
+        <f>H7-H8</f>
+        <v>2367.0500000000002</v>
+      </c>
       <c r="J9">
         <v>256.32</v>
       </c>

--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="291">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -892,6 +892,33 @@
   </si>
   <si>
     <t>Inorder predecessor and successor for a given key in BST</t>
+  </si>
+  <si>
+    <t>692. Top K Frequent Words</t>
+  </si>
+  <si>
+    <t>minheap？</t>
+  </si>
+  <si>
+    <t>658. Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>93. Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>5. Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>138. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum</t>
   </si>
 </sst>
 </file>
@@ -1472,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1481,9 +1508,10 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="107.5703125" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.1" customHeight="1">
@@ -2282,7 +2310,9 @@
       <c r="E59" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="17" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="2"/>
@@ -2294,7 +2324,9 @@
       <c r="E60" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="F60" s="17" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="2"/>
@@ -2306,7 +2338,12 @@
       <c r="E61" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="F61" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="G61" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1">
       <c r="A62" s="2"/>
@@ -2318,7 +2355,9 @@
       <c r="E62" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="14"/>
+      <c r="F62" s="17" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1">
       <c r="A63" s="2"/>
@@ -2330,7 +2369,9 @@
       <c r="E63" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F63" s="14"/>
+      <c r="F63" s="17" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1">
       <c r="A64" s="2"/>
@@ -2342,9 +2383,11 @@
       <c r="E64" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1">
+      <c r="F64" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
@@ -2354,9 +2397,11 @@
       <c r="E65" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" ht="18" customHeight="1">
+      <c r="F65" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -2366,9 +2411,11 @@
       <c r="E66" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" ht="18" customHeight="1">
+      <c r="F66" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
@@ -2378,9 +2425,14 @@
       <c r="E67" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1">
+      <c r="F67" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G67" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19" t="s">
@@ -2394,7 +2446,7 @@
       </c>
       <c r="F68" s="14"/>
     </row>
-    <row r="69" spans="1:6" ht="18" customHeight="1">
+    <row r="69" spans="1:7" ht="18" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
@@ -2406,7 +2458,7 @@
       </c>
       <c r="F69" s="14"/>
     </row>
-    <row r="70" spans="1:6" ht="18" customHeight="1">
+    <row r="70" spans="1:7" ht="18" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
@@ -2418,7 +2470,7 @@
       </c>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1">
+    <row r="71" spans="1:7" ht="18" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
@@ -2430,7 +2482,7 @@
       </c>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1">
+    <row r="72" spans="1:7" ht="18" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
@@ -2442,7 +2494,7 @@
       </c>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1">
+    <row r="73" spans="1:7" ht="18" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="18" t="s">
         <v>141</v>
@@ -2460,7 +2512,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75">
+    <row r="74" spans="1:7" ht="18.75">
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="15" t="s">
@@ -2473,7 +2525,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.75">
+    <row r="75" spans="1:7" ht="18.75">
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="4" t="s">
@@ -2486,7 +2538,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.75">
+    <row r="76" spans="1:7" ht="18.75">
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="4" t="s">
@@ -2499,7 +2551,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18.75">
+    <row r="77" spans="1:7" ht="18.75">
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="4" t="s">
@@ -2512,7 +2564,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18.75">
+    <row r="78" spans="1:7" ht="18.75">
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="4" t="s">
@@ -2525,7 +2577,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.75">
+    <row r="79" spans="1:7" ht="18.75">
       <c r="B79" s="18"/>
       <c r="C79" s="19" t="s">
         <v>27</v>
@@ -2538,7 +2590,7 @@
       </c>
       <c r="F79" s="14"/>
     </row>
-    <row r="80" spans="1:6" ht="18.75">
+    <row r="80" spans="1:7" ht="18.75">
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="6" t="s">

--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="292">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -920,12 +920,15 @@
   <si>
     <t>124. Binary Tree Maximum Path Sum</t>
   </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +999,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1137,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,7 +1203,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,12 +1228,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1516,12 +1533,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41.1" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="2"/>
@@ -1542,10 +1559,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1559,8 +1576,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1572,8 +1589,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1585,8 +1602,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1598,8 +1615,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1611,8 +1628,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1624,8 +1641,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1637,8 +1654,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1667,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1663,8 +1680,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1676,8 +1693,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1691,8 +1708,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1704,8 +1721,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1737,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1733,8 +1750,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.75">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
@@ -1746,8 +1763,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.75">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
@@ -1759,8 +1776,8 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.75">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1772,8 +1789,8 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="18.75">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1785,8 +1802,8 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="18.75">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1801,8 +1818,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="18.75">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1817,8 +1834,8 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="18.75">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1830,8 +1847,8 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:7" ht="18.75">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
@@ -1841,8 +1858,8 @@
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:7" ht="18.75">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
@@ -1852,8 +1869,8 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:7" ht="18.75">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1863,8 +1880,8 @@
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:7" ht="18.75">
-      <c r="B27" s="18"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1874,10 +1891,10 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:7" ht="18.75">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1891,8 +1908,8 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.75">
-      <c r="B29" s="24"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8" t="s">
         <v>62</v>
       </c>
@@ -1904,8 +1921,8 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="18.75">
-      <c r="B30" s="24"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8" t="s">
         <v>64</v>
       </c>
@@ -1917,8 +1934,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="18.75">
-      <c r="B31" s="24"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8" t="s">
         <v>66</v>
       </c>
@@ -1930,8 +1947,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="18.75">
-      <c r="B32" s="24"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
@@ -1943,8 +1960,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="B33" s="24"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
@@ -1956,8 +1973,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75">
-      <c r="B34" s="24"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
@@ -1969,8 +1986,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75">
-      <c r="B35" s="24"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1984,8 +2001,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75">
-      <c r="B36" s="24"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
@@ -1997,8 +2014,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75">
-      <c r="B37" s="24"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8" t="s">
         <v>76</v>
       </c>
@@ -2010,8 +2027,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75">
-      <c r="B38" s="24"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8" t="s">
         <v>78</v>
       </c>
@@ -2023,8 +2040,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75">
-      <c r="B39" s="24"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="8" t="s">
         <v>79</v>
       </c>
@@ -2036,8 +2053,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
-      <c r="B40" s="24"/>
-      <c r="C40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="8" t="s">
         <v>81</v>
       </c>
@@ -2049,8 +2066,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75">
-      <c r="B41" s="24"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="8" t="s">
         <v>83</v>
       </c>
@@ -2062,8 +2079,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75">
-      <c r="B42" s="24"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
@@ -2075,8 +2092,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75">
-      <c r="B43" s="24"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -2088,8 +2105,8 @@
       <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="B44" s="24"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8" t="s">
         <v>89</v>
       </c>
@@ -2099,8 +2116,8 @@
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="B45" s="24"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8" t="s">
         <v>55</v>
       </c>
@@ -2110,8 +2127,8 @@
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="B46" s="24"/>
-      <c r="C46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
@@ -2121,7 +2138,7 @@
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="18.75">
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="9" t="s">
         <v>93</v>
       </c>
@@ -2135,10 +2152,10 @@
     </row>
     <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="2"/>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2153,8 +2170,8 @@
     </row>
     <row r="49" spans="1:8" ht="18.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="4" t="s">
         <v>9</v>
       </c>
@@ -2167,8 +2184,8 @@
     </row>
     <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="4" t="s">
         <v>100</v>
       </c>
@@ -2181,8 +2198,8 @@
     </row>
     <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="4" t="s">
         <v>102</v>
       </c>
@@ -2195,8 +2212,8 @@
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="18.75">
       <c r="A52" s="2"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
@@ -2215,8 +2232,8 @@
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" ht="18.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="6" t="s">
         <v>21</v>
       </c>
@@ -2229,8 +2246,8 @@
     </row>
     <row r="54" spans="1:8" ht="18.75">
       <c r="A54" s="2"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2260,8 @@
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="2"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="6" t="s">
         <v>108</v>
       </c>
@@ -2257,8 +2274,8 @@
     </row>
     <row r="56" spans="1:8" ht="45">
       <c r="A56" s="2"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="6" t="s">
         <v>110</v>
       </c>
@@ -2274,8 +2291,8 @@
     </row>
     <row r="57" spans="1:8" ht="18.75">
       <c r="A57" s="2"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="6" t="s">
         <v>112</v>
       </c>
@@ -2288,8 +2305,8 @@
     </row>
     <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="2"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="21"/>
+      <c r="C58" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2298,47 +2315,52 @@
       <c r="E58" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G58" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="2"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="19" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="2"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="19" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="2"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="18" t="s">
         <v>288</v>
       </c>
       <c r="G61" t="s">
@@ -2347,85 +2369,85 @@
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="19" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="19" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="6" t="s">
         <v>125</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="19" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="19" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="6" t="s">
         <v>129</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="19" t="s">
         <v>282</v>
       </c>
       <c r="G67" t="s">
@@ -2434,8 +2456,8 @@
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2448,8 +2470,8 @@
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="6" t="s">
         <v>135</v>
       </c>
@@ -2460,8 +2482,8 @@
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="4" t="s">
         <v>51</v>
       </c>
@@ -2472,8 +2494,8 @@
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="4" t="s">
         <v>137</v>
       </c>
@@ -2484,8 +2506,8 @@
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="4" t="s">
         <v>139</v>
       </c>
@@ -2496,10 +2518,10 @@
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -2513,8 +2535,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="15" t="s">
         <v>19</v>
       </c>
@@ -2526,8 +2548,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="4" t="s">
         <v>144</v>
       </c>
@@ -2539,8 +2561,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="4" t="s">
         <v>146</v>
       </c>
@@ -2552,8 +2574,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="4" t="s">
         <v>148</v>
       </c>
@@ -2565,8 +2587,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="4" t="s">
         <v>150</v>
       </c>
@@ -2578,8 +2600,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
-      <c r="B79" s="18"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="21"/>
+      <c r="C79" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -2591,8 +2613,8 @@
       <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:7" ht="18.75">
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="6" t="s">
         <v>154</v>
       </c>
@@ -2602,8 +2624,8 @@
       <c r="F80" s="14"/>
     </row>
     <row r="81" spans="2:6" ht="18.75">
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="23"/>
       <c r="D81" s="4" t="s">
         <v>156</v>
       </c>
@@ -2613,8 +2635,8 @@
       <c r="F81" s="14"/>
     </row>
     <row r="82" spans="2:6" ht="18.75">
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="23"/>
       <c r="D82" s="6" t="s">
         <v>158</v>
       </c>
@@ -2624,8 +2646,8 @@
       <c r="F82" s="14"/>
     </row>
     <row r="83" spans="2:6" ht="18.75">
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="23"/>
       <c r="D83" s="6" t="s">
         <v>160</v>
       </c>
@@ -2635,8 +2657,8 @@
       <c r="F83" s="14"/>
     </row>
     <row r="84" spans="2:6" ht="18.75">
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="4" t="s">
         <v>162</v>
       </c>
@@ -2646,8 +2668,8 @@
       <c r="F84" s="14"/>
     </row>
     <row r="85" spans="2:6" ht="18.75">
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="6" t="s">
         <v>78</v>
       </c>
@@ -2657,8 +2679,8 @@
       <c r="F85" s="14"/>
     </row>
     <row r="86" spans="2:6" ht="18.75">
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="23"/>
       <c r="D86" s="6" t="s">
         <v>165</v>
       </c>
@@ -2668,8 +2690,8 @@
       <c r="F86" s="14"/>
     </row>
     <row r="87" spans="2:6" ht="18.75">
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="23"/>
       <c r="D87" s="6" t="s">
         <v>167</v>
       </c>
@@ -2679,8 +2701,8 @@
       <c r="F87" s="14"/>
     </row>
     <row r="88" spans="2:6" ht="18.75">
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="23"/>
       <c r="D88" s="6" t="s">
         <v>169</v>
       </c>
@@ -2690,8 +2712,8 @@
       <c r="F88" s="14"/>
     </row>
     <row r="89" spans="2:6" ht="18.75">
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="23"/>
       <c r="D89" s="6" t="s">
         <v>171</v>
       </c>
@@ -2701,8 +2723,8 @@
       <c r="F89" s="14"/>
     </row>
     <row r="90" spans="2:6" ht="18.75">
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="23"/>
       <c r="D90" s="6" t="s">
         <v>173</v>
       </c>
@@ -2712,8 +2734,8 @@
       <c r="F90" s="14"/>
     </row>
     <row r="91" spans="2:6" ht="18.75">
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="4" t="s">
         <v>175</v>
       </c>
@@ -2723,8 +2745,8 @@
       <c r="F91" s="14"/>
     </row>
     <row r="92" spans="2:6" ht="18.75">
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="4" t="s">
         <v>177</v>
       </c>
@@ -2734,8 +2756,8 @@
       <c r="F92" s="14"/>
     </row>
     <row r="93" spans="2:6" ht="18.75">
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="23"/>
       <c r="D93" s="4" t="s">
         <v>179</v>
       </c>
@@ -2745,8 +2767,8 @@
       <c r="F93" s="14"/>
     </row>
     <row r="94" spans="2:6" ht="18.75">
-      <c r="B94" s="18"/>
-      <c r="C94" s="19" t="s">
+      <c r="B94" s="21"/>
+      <c r="C94" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -2758,8 +2780,8 @@
       <c r="F94" s="14"/>
     </row>
     <row r="95" spans="2:6" ht="18.75">
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="23"/>
       <c r="D95" s="6" t="s">
         <v>181</v>
       </c>
@@ -2769,8 +2791,8 @@
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="2:6" ht="18.75">
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="4" t="s">
         <v>183</v>
       </c>
@@ -2780,8 +2802,8 @@
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="2:6" ht="18.75">
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="4" t="s">
         <v>185</v>
       </c>
@@ -2791,10 +2813,10 @@
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="2:6" ht="18.75">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2808,8 +2830,8 @@
       </c>
     </row>
     <row r="99" spans="2:6" ht="18.75">
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="23"/>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
@@ -2821,8 +2843,8 @@
       </c>
     </row>
     <row r="100" spans="2:6" ht="18.75">
-      <c r="B100" s="18"/>
-      <c r="C100" s="19"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="4" t="s">
         <v>100</v>
       </c>
@@ -2834,8 +2856,8 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="18.75">
-      <c r="B101" s="18"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="23"/>
       <c r="D101" s="6" t="s">
         <v>102</v>
       </c>
@@ -2847,8 +2869,8 @@
       </c>
     </row>
     <row r="102" spans="2:6" ht="18.75">
-      <c r="B102" s="18"/>
-      <c r="C102" s="19"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="23"/>
       <c r="D102" s="6" t="s">
         <v>21</v>
       </c>
@@ -2860,8 +2882,8 @@
       </c>
     </row>
     <row r="103" spans="2:6" ht="18.75">
-      <c r="B103" s="18"/>
-      <c r="C103" s="19" t="s">
+      <c r="B103" s="21"/>
+      <c r="C103" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -2872,8 +2894,8 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="18.75">
-      <c r="B104" s="18"/>
-      <c r="C104" s="19"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="23"/>
       <c r="D104" s="6" t="s">
         <v>28</v>
       </c>
@@ -2882,8 +2904,8 @@
       </c>
     </row>
     <row r="105" spans="2:6" ht="18.75">
-      <c r="B105" s="18"/>
-      <c r="C105" s="19"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="23"/>
       <c r="D105" s="4" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2914,8 @@
       </c>
     </row>
     <row r="106" spans="2:6" ht="18.75">
-      <c r="B106" s="18"/>
-      <c r="C106" s="19"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="23"/>
       <c r="D106" s="6" t="s">
         <v>194</v>
       </c>
@@ -2902,8 +2924,8 @@
       </c>
     </row>
     <row r="107" spans="2:6" ht="18.75">
-      <c r="B107" s="18"/>
-      <c r="C107" s="19"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="23"/>
       <c r="D107" s="6" t="s">
         <v>196</v>
       </c>
@@ -2912,8 +2934,8 @@
       </c>
     </row>
     <row r="108" spans="2:6" ht="18.75">
-      <c r="B108" s="18"/>
-      <c r="C108" s="19"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="23"/>
       <c r="D108" s="4" t="s">
         <v>198</v>
       </c>
@@ -2922,8 +2944,8 @@
       </c>
     </row>
     <row r="109" spans="2:6" ht="18.75">
-      <c r="B109" s="18"/>
-      <c r="C109" s="19"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="23"/>
       <c r="D109" s="6" t="s">
         <v>40</v>
       </c>
@@ -2932,8 +2954,8 @@
       </c>
     </row>
     <row r="110" spans="2:6" ht="18.75">
-      <c r="B110" s="18"/>
-      <c r="C110" s="19"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="23"/>
       <c r="D110" s="6" t="s">
         <v>200</v>
       </c>
@@ -2942,8 +2964,8 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="18.75">
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="23"/>
       <c r="D111" s="6" t="s">
         <v>202</v>
       </c>
@@ -2952,8 +2974,8 @@
       </c>
     </row>
     <row r="112" spans="2:6" ht="18.75">
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="23"/>
       <c r="D112" s="6" t="s">
         <v>204</v>
       </c>
@@ -2962,8 +2984,8 @@
       </c>
     </row>
     <row r="113" spans="2:5" ht="18.75">
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="23"/>
       <c r="D113" s="4" t="s">
         <v>206</v>
       </c>
@@ -2972,8 +2994,8 @@
       </c>
     </row>
     <row r="114" spans="2:5" ht="18.75">
-      <c r="B114" s="18"/>
-      <c r="C114" s="19"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="23"/>
       <c r="D114" s="6" t="s">
         <v>208</v>
       </c>
@@ -2982,8 +3004,8 @@
       </c>
     </row>
     <row r="115" spans="2:5" ht="18.75">
-      <c r="B115" s="18"/>
-      <c r="C115" s="19"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="23"/>
       <c r="D115" s="6" t="s">
         <v>210</v>
       </c>
@@ -2992,8 +3014,8 @@
       </c>
     </row>
     <row r="116" spans="2:5" ht="18.75">
-      <c r="B116" s="18"/>
-      <c r="C116" s="19"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="23"/>
       <c r="D116" s="6" t="s">
         <v>212</v>
       </c>
@@ -3002,8 +3024,8 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="18.75">
-      <c r="B117" s="18"/>
-      <c r="C117" s="19"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="23"/>
       <c r="D117" s="4" t="s">
         <v>214</v>
       </c>
@@ -3012,8 +3034,8 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="18.75">
-      <c r="B118" s="18"/>
-      <c r="C118" s="19" t="s">
+      <c r="B118" s="21"/>
+      <c r="C118" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -3024,8 +3046,8 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="18.75">
-      <c r="B119" s="18"/>
-      <c r="C119" s="19"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="23"/>
       <c r="D119" s="6" t="s">
         <v>216</v>
       </c>
@@ -3034,8 +3056,8 @@
       </c>
     </row>
     <row r="120" spans="2:5" ht="18.75">
-      <c r="B120" s="18"/>
-      <c r="C120" s="19"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="23"/>
       <c r="D120" s="4" t="s">
         <v>218</v>
       </c>
@@ -3044,8 +3066,8 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="18.75">
-      <c r="B121" s="18"/>
-      <c r="C121" s="19"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="23"/>
       <c r="D121" s="4" t="s">
         <v>220</v>
       </c>
@@ -3054,8 +3076,8 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="18.75">
-      <c r="B122" s="18"/>
-      <c r="C122" s="19"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="23"/>
       <c r="D122" s="4" t="s">
         <v>222</v>
       </c>
@@ -3065,11 +3087,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="B28:B47"/>
-    <mergeCell ref="B48:B72"/>
-    <mergeCell ref="B73:B97"/>
     <mergeCell ref="B98:B122"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C22"/>
@@ -3086,6 +3103,11 @@
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="C103:C117"/>
     <mergeCell ref="C118:C122"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="B28:B47"/>
+    <mergeCell ref="B48:B72"/>
+    <mergeCell ref="B73:B97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E54" r:id="rId1"/>

--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$72</definedName>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="315">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -819,24 +818,6 @@
     <t>dp</t>
   </si>
   <si>
-    <t>washer</t>
-  </si>
-  <si>
-    <t>refregrator</t>
-  </si>
-  <si>
-    <t>part1</t>
-  </si>
-  <si>
-    <t>part2</t>
-  </si>
-  <si>
-    <t>part3</t>
-  </si>
-  <si>
-    <t>dryer</t>
-  </si>
-  <si>
     <t>57. Insert Interval</t>
   </si>
   <si>
@@ -897,9 +878,6 @@
     <t>692. Top K Frequent Words</t>
   </si>
   <si>
-    <t>minheap？</t>
-  </si>
-  <si>
     <t>658. Find K Closest Elements</t>
   </si>
   <si>
@@ -922,6 +900,96 @@
   </si>
   <si>
     <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>46. Permutations</t>
+  </si>
+  <si>
+    <t>no permition</t>
+  </si>
+  <si>
+    <t>625MinimumFactorization 254FactorCombinations</t>
+  </si>
+  <si>
+    <t>152Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>149. Max Points on a Line</t>
+  </si>
+  <si>
+    <t>973. K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>150. Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>lowest-common-ancestor iii</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>278. First Bad Version</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
+  </si>
+  <si>
+    <t>Next Permutation ii</t>
+  </si>
+  <si>
+    <t>825. Friends Of Appropriate Ages</t>
+  </si>
+  <si>
+    <t>why？</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>计算逻辑？？</t>
+  </si>
+  <si>
+    <t>767. Reorganize String</t>
+  </si>
+  <si>
+    <t>讲讲</t>
+  </si>
+  <si>
+    <t>477. Total Hamming Distance</t>
+  </si>
+  <si>
+    <t>汉明距离：两个二进制数有多少位不同</t>
+  </si>
+  <si>
+    <t>小问题</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>Range Sum of BST</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1080,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,6 +1108,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,7 +1228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,13 +1289,22 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,6 +1317,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1516,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1527,18 +1622,18 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="107.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.1" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="2"/>
@@ -1559,10 +1654,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1576,8 +1671,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1589,8 +1684,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75">
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1602,8 +1697,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75">
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1615,8 +1710,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1628,8 +1723,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75">
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1641,8 +1736,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1654,8 +1749,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75">
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1667,8 +1762,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75">
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1680,8 +1775,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75">
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1693,8 +1788,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75">
-      <c r="B13" s="21"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1704,12 +1799,12 @@
         <v>29</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1717,12 +1812,12 @@
         <v>31</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75">
-      <c r="B15" s="21"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
@@ -1730,15 +1825,15 @@
         <v>33</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75">
-      <c r="B16" s="21"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1746,12 +1841,12 @@
         <v>35</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.75">
-      <c r="B17" s="21"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
@@ -1759,12 +1854,12 @@
         <v>37</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.75">
-      <c r="B18" s="21"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
@@ -1772,12 +1867,12 @@
         <v>39</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.75">
-      <c r="B19" s="21"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1785,12 +1880,12 @@
         <v>41</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18.75">
-      <c r="B20" s="21"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1798,12 +1893,12 @@
         <v>43</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18.75">
-      <c r="B21" s="21"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1811,15 +1906,15 @@
         <v>45</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18.75">
-      <c r="B22" s="21"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1827,15 +1922,15 @@
         <v>47</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="18.75">
-      <c r="B23" s="21"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1847,8 +1942,8 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:7" ht="18.75">
-      <c r="B24" s="21"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
@@ -1858,8 +1953,8 @@
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:7" ht="18.75">
-      <c r="B25" s="21"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
@@ -1869,8 +1964,8 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:7" ht="18.75">
-      <c r="B26" s="21"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1880,8 +1975,8 @@
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:7" ht="18.75">
-      <c r="B27" s="21"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1891,10 +1986,10 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:7" ht="18.75">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1908,8 +2003,8 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.75">
-      <c r="B29" s="22"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="8" t="s">
         <v>62</v>
       </c>
@@ -1921,8 +2016,8 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="18.75">
-      <c r="B30" s="22"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="8" t="s">
         <v>64</v>
       </c>
@@ -1934,8 +2029,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="18.75">
-      <c r="B31" s="22"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="8" t="s">
         <v>66</v>
       </c>
@@ -1947,8 +2042,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="18.75">
-      <c r="B32" s="22"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
@@ -1960,8 +2055,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="B33" s="22"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
@@ -1973,8 +2068,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75">
-      <c r="B34" s="22"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
@@ -1986,8 +2081,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75">
-      <c r="B35" s="22"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1997,12 +2092,12 @@
         <v>31</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75">
-      <c r="B36" s="22"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
@@ -2010,12 +2105,12 @@
         <v>75</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75">
-      <c r="B37" s="22"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="8" t="s">
         <v>76</v>
       </c>
@@ -2023,12 +2118,12 @@
         <v>77</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75">
-      <c r="B38" s="22"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="8" t="s">
         <v>78</v>
       </c>
@@ -2036,12 +2131,12 @@
         <v>164</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75">
-      <c r="B39" s="22"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="8" t="s">
         <v>79</v>
       </c>
@@ -2049,12 +2144,12 @@
         <v>80</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30">
-      <c r="B40" s="22"/>
-      <c r="C40" s="25"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="B40" s="31"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="8" t="s">
         <v>81</v>
       </c>
@@ -2062,12 +2157,12 @@
         <v>82</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75">
-      <c r="B41" s="22"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="8" t="s">
         <v>83</v>
       </c>
@@ -2075,12 +2170,12 @@
         <v>84</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75">
-      <c r="B42" s="22"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
@@ -2088,12 +2183,12 @@
         <v>86</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75">
-      <c r="B43" s="22"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -2105,8 +2200,8 @@
       <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="B44" s="22"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="8" t="s">
         <v>89</v>
       </c>
@@ -2116,8 +2211,8 @@
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="B45" s="22"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="8" t="s">
         <v>55</v>
       </c>
@@ -2127,8 +2222,8 @@
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="B46" s="22"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
@@ -2138,7 +2233,7 @@
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="18.75">
-      <c r="B47" s="22"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="9" t="s">
         <v>93</v>
       </c>
@@ -2152,10 +2247,10 @@
     </row>
     <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="2"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2170,8 +2265,8 @@
     </row>
     <row r="49" spans="1:8" ht="18.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="4" t="s">
         <v>9</v>
       </c>
@@ -2184,8 +2279,8 @@
     </row>
     <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="4" t="s">
         <v>100</v>
       </c>
@@ -2198,8 +2293,8 @@
     </row>
     <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="4" t="s">
         <v>102</v>
       </c>
@@ -2212,8 +2307,8 @@
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="18.75">
       <c r="A52" s="2"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
@@ -2232,8 +2327,8 @@
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" ht="18.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="23"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="6" t="s">
         <v>21</v>
       </c>
@@ -2246,8 +2341,8 @@
     </row>
     <row r="54" spans="1:8" ht="18.75">
       <c r="A54" s="2"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
@@ -2260,8 +2355,8 @@
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="2"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="23"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="6" t="s">
         <v>108</v>
       </c>
@@ -2274,8 +2369,8 @@
     </row>
     <row r="56" spans="1:8" ht="45">
       <c r="A56" s="2"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="6" t="s">
         <v>110</v>
       </c>
@@ -2291,8 +2386,8 @@
     </row>
     <row r="57" spans="1:8" ht="18.75">
       <c r="A57" s="2"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="23"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="6" t="s">
         <v>112</v>
       </c>
@@ -2305,8 +2400,8 @@
     </row>
     <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="2"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="23" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2316,16 +2411,13 @@
         <v>115</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="G58" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="2"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="23"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="6" t="s">
         <v>116</v>
       </c>
@@ -2333,13 +2425,13 @@
         <v>117</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="2"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="23"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="4" t="s">
         <v>118</v>
       </c>
@@ -2347,13 +2439,13 @@
         <v>119</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="2"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="23"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="6" t="s">
         <v>120</v>
       </c>
@@ -2361,16 +2453,13 @@
         <v>121</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="G61" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="23"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="6" t="s">
         <v>34</v>
       </c>
@@ -2378,13 +2467,13 @@
         <v>122</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="23"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="4" t="s">
         <v>123</v>
       </c>
@@ -2392,13 +2481,13 @@
         <v>124</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="23"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="6" t="s">
         <v>125</v>
       </c>
@@ -2406,13 +2495,13 @@
         <v>126</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="23"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="6" t="s">
         <v>127</v>
       </c>
@@ -2420,13 +2509,13 @@
         <v>128</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="23"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="6" t="s">
         <v>129</v>
       </c>
@@ -2434,13 +2523,13 @@
         <v>130</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="23"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="6" t="s">
         <v>131</v>
       </c>
@@ -2448,16 +2537,13 @@
         <v>132</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G67" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="23" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2470,8 +2556,8 @@
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="23"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="6" t="s">
         <v>135</v>
       </c>
@@ -2482,8 +2568,8 @@
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="23"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="4" t="s">
         <v>51</v>
       </c>
@@ -2494,8 +2580,8 @@
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="23"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="4" t="s">
         <v>137</v>
       </c>
@@ -2506,8 +2592,8 @@
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="23"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="4" t="s">
         <v>139</v>
       </c>
@@ -2518,10 +2604,10 @@
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -2535,8 +2621,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
-      <c r="B74" s="21"/>
-      <c r="C74" s="23"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="15" t="s">
         <v>19</v>
       </c>
@@ -2548,8 +2634,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
-      <c r="B75" s="21"/>
-      <c r="C75" s="23"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="4" t="s">
         <v>144</v>
       </c>
@@ -2561,8 +2647,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
-      <c r="B76" s="21"/>
-      <c r="C76" s="23"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="4" t="s">
         <v>146</v>
       </c>
@@ -2574,8 +2660,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
-      <c r="B77" s="21"/>
-      <c r="C77" s="23"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="4" t="s">
         <v>148</v>
       </c>
@@ -2587,8 +2673,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
-      <c r="B78" s="21"/>
-      <c r="C78" s="23"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="4" t="s">
         <v>150</v>
       </c>
@@ -2600,8 +2686,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
-      <c r="B79" s="21"/>
-      <c r="C79" s="23" t="s">
+      <c r="B79" s="25"/>
+      <c r="C79" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -2610,165 +2696,225 @@
       <c r="E79" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F79" s="14"/>
+      <c r="F79" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="G79" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="18.75">
-      <c r="B80" s="21"/>
-      <c r="C80" s="23"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="2:6" ht="18.75">
-      <c r="B81" s="21"/>
-      <c r="C81" s="23"/>
+      <c r="F80" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="18.75">
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="2:6" ht="18.75">
-      <c r="B82" s="21"/>
-      <c r="C82" s="23"/>
+      <c r="F81" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="G81" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="18.75">
+      <c r="B82" s="25"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="6" t="s">
         <v>158</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="14"/>
-    </row>
-    <row r="83" spans="2:6" ht="18.75">
-      <c r="B83" s="21"/>
-      <c r="C83" s="23"/>
+      <c r="F82" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="18.75">
+      <c r="B83" s="25"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" spans="2:6" ht="18.75">
-      <c r="B84" s="21"/>
-      <c r="C84" s="23"/>
+      <c r="F83" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G83" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="18.75">
+      <c r="B84" s="25"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" spans="2:6" ht="18.75">
-      <c r="B85" s="21"/>
-      <c r="C85" s="23"/>
+      <c r="F84" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G84" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B85" s="25"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F85" s="14"/>
-    </row>
-    <row r="86" spans="2:6" ht="18.75">
-      <c r="B86" s="21"/>
-      <c r="C86" s="23"/>
+      <c r="F85" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B86" s="25"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="6" t="s">
         <v>165</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" spans="2:6" ht="18.75">
-      <c r="B87" s="21"/>
-      <c r="C87" s="23"/>
+      <c r="F86" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="18.75">
+      <c r="B87" s="25"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="6" t="s">
         <v>167</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="2:6" ht="18.75">
-      <c r="B88" s="21"/>
-      <c r="C88" s="23"/>
+      <c r="F87" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="18.75">
+      <c r="B88" s="25"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="6" t="s">
         <v>169</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="2:6" ht="18.75">
-      <c r="B89" s="21"/>
-      <c r="C89" s="23"/>
+      <c r="F88" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="18.75">
+      <c r="B89" s="25"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="6" t="s">
         <v>171</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="2:6" ht="18.75">
-      <c r="B90" s="21"/>
-      <c r="C90" s="23"/>
+      <c r="F89" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="18.75">
+      <c r="B90" s="25"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="6" t="s">
         <v>173</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="2:6" ht="18.75">
-      <c r="B91" s="21"/>
-      <c r="C91" s="23"/>
+      <c r="F90" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G90" t="s">
+        <v>309</v>
+      </c>
+      <c r="H90" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="18.75">
+      <c r="B91" s="25"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="2:6" ht="18.75">
-      <c r="B92" s="21"/>
-      <c r="C92" s="23"/>
+      <c r="F91" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="G91" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="18.75">
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="2:6" ht="18.75">
-      <c r="B93" s="21"/>
-      <c r="C93" s="23"/>
+      <c r="F92" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="18.75">
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="2:6" ht="18.75">
-      <c r="B94" s="21"/>
-      <c r="C94" s="23" t="s">
+      <c r="F93" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="18.75">
+      <c r="B94" s="25"/>
+      <c r="C94" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -2779,9 +2925,9 @@
       </c>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="2:6" ht="18.75">
-      <c r="B95" s="21"/>
-      <c r="C95" s="23"/>
+    <row r="95" spans="2:8" ht="18.75">
+      <c r="B95" s="25"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="6" t="s">
         <v>181</v>
       </c>
@@ -2790,9 +2936,9 @@
       </c>
       <c r="F95" s="14"/>
     </row>
-    <row r="96" spans="2:6" ht="18.75">
-      <c r="B96" s="21"/>
-      <c r="C96" s="23"/>
+    <row r="96" spans="2:8" ht="18.75">
+      <c r="B96" s="25"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="4" t="s">
         <v>183</v>
       </c>
@@ -2802,8 +2948,8 @@
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="2:6" ht="18.75">
-      <c r="B97" s="21"/>
-      <c r="C97" s="23"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="4" t="s">
         <v>185</v>
       </c>
@@ -2813,10 +2959,10 @@
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="2:6" ht="18.75">
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2830,8 +2976,8 @@
       </c>
     </row>
     <row r="99" spans="2:6" ht="18.75">
-      <c r="B99" s="21"/>
-      <c r="C99" s="23"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
@@ -2843,8 +2989,8 @@
       </c>
     </row>
     <row r="100" spans="2:6" ht="18.75">
-      <c r="B100" s="21"/>
-      <c r="C100" s="23"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="26"/>
       <c r="D100" s="4" t="s">
         <v>100</v>
       </c>
@@ -2856,8 +3002,8 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="18.75">
-      <c r="B101" s="21"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="26"/>
       <c r="D101" s="6" t="s">
         <v>102</v>
       </c>
@@ -2869,8 +3015,8 @@
       </c>
     </row>
     <row r="102" spans="2:6" ht="18.75">
-      <c r="B102" s="21"/>
-      <c r="C102" s="23"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="26"/>
       <c r="D102" s="6" t="s">
         <v>21</v>
       </c>
@@ -2882,8 +3028,8 @@
       </c>
     </row>
     <row r="103" spans="2:6" ht="18.75">
-      <c r="B103" s="21"/>
-      <c r="C103" s="23" t="s">
+      <c r="B103" s="25"/>
+      <c r="C103" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -2892,150 +3038,195 @@
       <c r="E103" s="10" t="s">
         <v>193</v>
       </c>
+      <c r="F103" s="22" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="104" spans="2:6" ht="18.75">
-      <c r="B104" s="21"/>
-      <c r="C104" s="23"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="26"/>
       <c r="D104" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="F104" s="19" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="105" spans="2:6" ht="18.75">
-      <c r="B105" s="21"/>
-      <c r="C105" s="23"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="26"/>
       <c r="D105" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="F105" s="19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="106" spans="2:6" ht="18.75">
-      <c r="B106" s="21"/>
-      <c r="C106" s="23"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="26"/>
       <c r="D106" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="11" t="s">
         <v>195</v>
       </c>
+      <c r="F106" s="19" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="107" spans="2:6" ht="18.75">
-      <c r="B107" s="21"/>
-      <c r="C107" s="23"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="26"/>
       <c r="D107" s="6" t="s">
         <v>196</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>197</v>
       </c>
+      <c r="F107" s="19" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="108" spans="2:6" ht="18.75">
-      <c r="B108" s="21"/>
-      <c r="C108" s="23"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>199</v>
       </c>
+      <c r="F108" s="19" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="109" spans="2:6" ht="18.75">
-      <c r="B109" s="21"/>
-      <c r="C109" s="23"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="26"/>
       <c r="D109" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="F109" s="19" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="110" spans="2:6" ht="18.75">
-      <c r="B110" s="21"/>
-      <c r="C110" s="23"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="26"/>
       <c r="D110" s="6" t="s">
         <v>200</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>201</v>
       </c>
+      <c r="F110" s="19" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="111" spans="2:6" ht="18.75">
-      <c r="B111" s="21"/>
-      <c r="C111" s="23"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="26"/>
       <c r="D111" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="11" t="s">
         <v>203</v>
       </c>
+      <c r="F111" s="21" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="112" spans="2:6" ht="18.75">
-      <c r="B112" s="21"/>
-      <c r="C112" s="23"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="26"/>
       <c r="D112" s="6" t="s">
         <v>204</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" ht="18.75">
-      <c r="B113" s="21"/>
-      <c r="C113" s="23"/>
+      <c r="F112" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="18.75">
+      <c r="B113" s="25"/>
+      <c r="C113" s="26"/>
       <c r="D113" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" ht="18.75">
-      <c r="B114" s="21"/>
-      <c r="C114" s="23"/>
+      <c r="F113" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="18.75">
+      <c r="B114" s="25"/>
+      <c r="C114" s="26"/>
       <c r="D114" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E114" s="11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" ht="18.75">
-      <c r="B115" s="21"/>
-      <c r="C115" s="23"/>
+      <c r="F114" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="18.75">
+      <c r="B115" s="25"/>
+      <c r="C115" s="26"/>
       <c r="D115" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" ht="18.75">
-      <c r="B116" s="21"/>
-      <c r="C116" s="23"/>
+      <c r="F115" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="18.75">
+      <c r="B116" s="25"/>
+      <c r="C116" s="26"/>
       <c r="D116" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="11" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" ht="18.75">
-      <c r="B117" s="21"/>
-      <c r="C117" s="23"/>
+      <c r="F116" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="18.75">
+      <c r="B117" s="25"/>
+      <c r="C117" s="26"/>
       <c r="D117" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="11" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" ht="18.75">
-      <c r="B118" s="21"/>
-      <c r="C118" s="23" t="s">
+      <c r="F117" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="18.75">
+      <c r="B118" s="25"/>
+      <c r="C118" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -3045,9 +3236,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="18.75">
-      <c r="B119" s="21"/>
-      <c r="C119" s="23"/>
+    <row r="119" spans="2:6" ht="18.75">
+      <c r="B119" s="25"/>
+      <c r="C119" s="26"/>
       <c r="D119" s="6" t="s">
         <v>216</v>
       </c>
@@ -3055,9 +3246,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="18.75">
-      <c r="B120" s="21"/>
-      <c r="C120" s="23"/>
+    <row r="120" spans="2:6" ht="18.75">
+      <c r="B120" s="25"/>
+      <c r="C120" s="26"/>
       <c r="D120" s="4" t="s">
         <v>218</v>
       </c>
@@ -3065,9 +3256,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="18.75">
-      <c r="B121" s="21"/>
-      <c r="C121" s="23"/>
+    <row r="121" spans="2:6" ht="18.75">
+      <c r="B121" s="25"/>
+      <c r="C121" s="26"/>
       <c r="D121" s="4" t="s">
         <v>220</v>
       </c>
@@ -3075,9 +3266,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="18.75">
-      <c r="B122" s="21"/>
-      <c r="C122" s="23"/>
+    <row r="122" spans="2:6" ht="18.75">
+      <c r="B122" s="25"/>
+      <c r="C122" s="26"/>
       <c r="D122" s="4" t="s">
         <v>222</v>
       </c>
@@ -3087,6 +3278,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="B28:B47"/>
+    <mergeCell ref="B48:B72"/>
+    <mergeCell ref="B73:B97"/>
     <mergeCell ref="B98:B122"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C22"/>
@@ -3103,11 +3299,6 @@
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="C103:C117"/>
     <mergeCell ref="C118:C122"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="B28:B47"/>
-    <mergeCell ref="B48:B72"/>
-    <mergeCell ref="B73:B97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E54" r:id="rId1"/>
@@ -3234,105 +3425,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7">
-        <f>SUM(B1:B6)</f>
-        <v>3849</v>
-      </c>
-      <c r="H7">
-        <v>4125.25</v>
-      </c>
-      <c r="J7">
-        <v>1685.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="H8">
-        <v>1758.2</v>
-      </c>
-      <c r="J8">
-        <v>2199.9899999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="H9">
-        <f>H7-H8</f>
-        <v>2367.0500000000002</v>
-      </c>
-      <c r="J9">
-        <v>256.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="J10">
-        <f>SUM(J7:J9)</f>
-        <v>4142.2599999999993</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="320">
   <si>
     <t>2020秋招-FLAMG面试频率最高的120道题</t>
   </si>
@@ -990,6 +990,21 @@
   </si>
   <si>
     <t>Range Sum of BST</t>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>10. Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>85. Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>25. Reverse Nodes in k-Group</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1319,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,12 +1338,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1628,12 +1643,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41.1" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="2"/>
@@ -1654,10 +1669,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1671,8 +1686,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1684,8 +1699,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1697,8 +1712,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1710,8 +1725,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1723,8 +1738,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1736,8 +1751,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1749,8 +1764,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1762,8 +1777,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1775,8 +1790,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1788,8 +1803,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1803,8 +1818,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1816,8 +1831,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
@@ -1832,8 +1847,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1845,8 +1860,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.75">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
@@ -1858,8 +1873,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.75">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
@@ -1871,8 +1886,8 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.75">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1884,8 +1899,8 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="18.75">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1897,8 +1912,8 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="18.75">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1913,8 +1928,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="18.75">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1929,8 +1944,8 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="18.75">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1939,57 +1954,67 @@
       <c r="E23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="23" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="18.75">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="23" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="18.75">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="23" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="18.75">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="23" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="18.75">
-      <c r="B27" s="25"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="23" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="18.75">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -2003,8 +2028,8 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.75">
-      <c r="B29" s="31"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="8" t="s">
         <v>62</v>
       </c>
@@ -2016,8 +2041,8 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="18.75">
-      <c r="B30" s="31"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="8" t="s">
         <v>64</v>
       </c>
@@ -2029,8 +2054,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="18.75">
-      <c r="B31" s="31"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="8" t="s">
         <v>66</v>
       </c>
@@ -2042,8 +2067,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="18.75">
-      <c r="B32" s="31"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
@@ -2055,8 +2080,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="B33" s="31"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
@@ -2068,8 +2093,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75">
-      <c r="B34" s="31"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
@@ -2081,8 +2106,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75">
-      <c r="B35" s="31"/>
-      <c r="C35" s="28" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -2096,8 +2121,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75">
-      <c r="B36" s="31"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
@@ -2109,8 +2134,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75">
-      <c r="B37" s="31"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="8" t="s">
         <v>76</v>
       </c>
@@ -2122,8 +2147,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75">
-      <c r="B38" s="31"/>
-      <c r="C38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="8" t="s">
         <v>78</v>
       </c>
@@ -2135,8 +2160,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75">
-      <c r="B39" s="31"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="8" t="s">
         <v>79</v>
       </c>
@@ -2148,8 +2173,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75">
-      <c r="B40" s="31"/>
-      <c r="C40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="8" t="s">
         <v>81</v>
       </c>
@@ -2161,8 +2186,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75">
-      <c r="B41" s="31"/>
-      <c r="C41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="8" t="s">
         <v>83</v>
       </c>
@@ -2174,8 +2199,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75">
-      <c r="B42" s="31"/>
-      <c r="C42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
@@ -2187,8 +2212,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75">
-      <c r="B43" s="31"/>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="30" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -2200,8 +2225,8 @@
       <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="B44" s="31"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="8" t="s">
         <v>89</v>
       </c>
@@ -2211,8 +2236,8 @@
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="B45" s="31"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="8" t="s">
         <v>55</v>
       </c>
@@ -2222,8 +2247,8 @@
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="B46" s="31"/>
-      <c r="C46" s="28"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
@@ -2233,7 +2258,7 @@
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="18.75">
-      <c r="B47" s="31"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="9" t="s">
         <v>93</v>
       </c>
@@ -2247,10 +2272,10 @@
     </row>
     <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="2"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2265,8 +2290,8 @@
     </row>
     <row r="49" spans="1:8" ht="18.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="4" t="s">
         <v>9</v>
       </c>
@@ -2279,8 +2304,8 @@
     </row>
     <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="4" t="s">
         <v>100</v>
       </c>
@@ -2293,8 +2318,8 @@
     </row>
     <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="4" t="s">
         <v>102</v>
       </c>
@@ -2307,8 +2332,8 @@
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="18.75">
       <c r="A52" s="2"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
@@ -2327,8 +2352,8 @@
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" ht="18.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="6" t="s">
         <v>21</v>
       </c>
@@ -2341,8 +2366,8 @@
     </row>
     <row r="54" spans="1:8" ht="18.75">
       <c r="A54" s="2"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
@@ -2355,8 +2380,8 @@
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="2"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="6" t="s">
         <v>108</v>
       </c>
@@ -2369,8 +2394,8 @@
     </row>
     <row r="56" spans="1:8" ht="45">
       <c r="A56" s="2"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="6" t="s">
         <v>110</v>
       </c>
@@ -2386,8 +2411,8 @@
     </row>
     <row r="57" spans="1:8" ht="18.75">
       <c r="A57" s="2"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="6" t="s">
         <v>112</v>
       </c>
@@ -2400,8 +2425,8 @@
     </row>
     <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="2"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2416,8 +2441,8 @@
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="2"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="6" t="s">
         <v>116</v>
       </c>
@@ -2430,8 +2455,8 @@
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="2"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="4" t="s">
         <v>118</v>
       </c>
@@ -2444,8 +2469,8 @@
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="2"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="6" t="s">
         <v>120</v>
       </c>
@@ -2458,8 +2483,8 @@
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="6" t="s">
         <v>34</v>
       </c>
@@ -2472,8 +2497,8 @@
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="4" t="s">
         <v>123</v>
       </c>
@@ -2486,8 +2511,8 @@
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="6" t="s">
         <v>125</v>
       </c>
@@ -2500,8 +2525,8 @@
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="6" t="s">
         <v>127</v>
       </c>
@@ -2514,8 +2539,8 @@
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="6" t="s">
         <v>129</v>
       </c>
@@ -2528,8 +2553,8 @@
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="28"/>
       <c r="D67" s="6" t="s">
         <v>131</v>
       </c>
@@ -2542,8 +2567,8 @@
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2556,8 +2581,8 @@
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="6" t="s">
         <v>135</v>
       </c>
@@ -2568,8 +2593,8 @@
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="4" t="s">
         <v>51</v>
       </c>
@@ -2580,8 +2605,8 @@
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="4" t="s">
         <v>137</v>
       </c>
@@ -2592,8 +2617,8 @@
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="4" t="s">
         <v>139</v>
       </c>
@@ -2604,10 +2629,10 @@
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -2621,8 +2646,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="28"/>
       <c r="D74" s="15" t="s">
         <v>19</v>
       </c>
@@ -2634,8 +2659,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="28"/>
       <c r="D75" s="4" t="s">
         <v>144</v>
       </c>
@@ -2647,8 +2672,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="4" t="s">
         <v>146</v>
       </c>
@@ -2660,8 +2685,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="28"/>
       <c r="D77" s="4" t="s">
         <v>148</v>
       </c>
@@ -2673,8 +2698,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="4" t="s">
         <v>150</v>
       </c>
@@ -2686,8 +2711,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
-      <c r="B79" s="25"/>
-      <c r="C79" s="26" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -2704,8 +2729,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75">
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="28"/>
       <c r="D80" s="6" t="s">
         <v>154</v>
       </c>
@@ -2720,8 +2745,8 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="18.75">
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="4" t="s">
         <v>156</v>
       </c>
@@ -2736,8 +2761,8 @@
       </c>
     </row>
     <row r="82" spans="2:8" ht="18.75">
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="6" t="s">
         <v>158</v>
       </c>
@@ -2749,8 +2774,8 @@
       </c>
     </row>
     <row r="83" spans="2:8" ht="18.75">
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="6" t="s">
         <v>160</v>
       </c>
@@ -2765,8 +2790,8 @@
       </c>
     </row>
     <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="4" t="s">
         <v>162</v>
       </c>
@@ -2781,8 +2806,8 @@
       </c>
     </row>
     <row r="85" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="6" t="s">
         <v>78</v>
       </c>
@@ -2794,8 +2819,8 @@
       </c>
     </row>
     <row r="86" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B86" s="25"/>
-      <c r="C86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="6" t="s">
         <v>165</v>
       </c>
@@ -2807,8 +2832,8 @@
       </c>
     </row>
     <row r="87" spans="2:8" ht="18.75">
-      <c r="B87" s="25"/>
-      <c r="C87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="6" t="s">
         <v>167</v>
       </c>
@@ -2820,8 +2845,8 @@
       </c>
     </row>
     <row r="88" spans="2:8" ht="18.75">
-      <c r="B88" s="25"/>
-      <c r="C88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="6" t="s">
         <v>169</v>
       </c>
@@ -2836,8 +2861,8 @@
       </c>
     </row>
     <row r="89" spans="2:8" ht="18.75">
-      <c r="B89" s="25"/>
-      <c r="C89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="6" t="s">
         <v>171</v>
       </c>
@@ -2852,8 +2877,8 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="25"/>
-      <c r="C90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="6" t="s">
         <v>173</v>
       </c>
@@ -2871,8 +2896,8 @@
       </c>
     </row>
     <row r="91" spans="2:8" ht="18.75">
-      <c r="B91" s="25"/>
-      <c r="C91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="4" t="s">
         <v>175</v>
       </c>
@@ -2887,8 +2912,8 @@
       </c>
     </row>
     <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="25"/>
-      <c r="C92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="4" t="s">
         <v>177</v>
       </c>
@@ -2900,8 +2925,8 @@
       </c>
     </row>
     <row r="93" spans="2:8" ht="18.75">
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="4" t="s">
         <v>179</v>
       </c>
@@ -2913,8 +2938,8 @@
       </c>
     </row>
     <row r="94" spans="2:8" ht="18.75">
-      <c r="B94" s="25"/>
-      <c r="C94" s="26" t="s">
+      <c r="B94" s="26"/>
+      <c r="C94" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -2926,8 +2951,8 @@
       <c r="F94" s="14"/>
     </row>
     <row r="95" spans="2:8" ht="18.75">
-      <c r="B95" s="25"/>
-      <c r="C95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="6" t="s">
         <v>181</v>
       </c>
@@ -2937,8 +2962,8 @@
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="25"/>
-      <c r="C96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="4" t="s">
         <v>183</v>
       </c>
@@ -2948,8 +2973,8 @@
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="2:6" ht="18.75">
-      <c r="B97" s="25"/>
-      <c r="C97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="4" t="s">
         <v>185</v>
       </c>
@@ -2959,10 +2984,10 @@
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="2:6" ht="18.75">
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2976,8 +3001,8 @@
       </c>
     </row>
     <row r="99" spans="2:6" ht="18.75">
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
@@ -2989,8 +3014,8 @@
       </c>
     </row>
     <row r="100" spans="2:6" ht="18.75">
-      <c r="B100" s="25"/>
-      <c r="C100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="28"/>
       <c r="D100" s="4" t="s">
         <v>100</v>
       </c>
@@ -3002,8 +3027,8 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="18.75">
-      <c r="B101" s="25"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="6" t="s">
         <v>102</v>
       </c>
@@ -3015,8 +3040,8 @@
       </c>
     </row>
     <row r="102" spans="2:6" ht="18.75">
-      <c r="B102" s="25"/>
-      <c r="C102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="6" t="s">
         <v>21</v>
       </c>
@@ -3028,8 +3053,8 @@
       </c>
     </row>
     <row r="103" spans="2:6" ht="18.75">
-      <c r="B103" s="25"/>
-      <c r="C103" s="26" t="s">
+      <c r="B103" s="26"/>
+      <c r="C103" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -3043,8 +3068,8 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="18.75">
-      <c r="B104" s="25"/>
-      <c r="C104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="6" t="s">
         <v>28</v>
       </c>
@@ -3056,8 +3081,8 @@
       </c>
     </row>
     <row r="105" spans="2:6" ht="18.75">
-      <c r="B105" s="25"/>
-      <c r="C105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="4" t="s">
         <v>32</v>
       </c>
@@ -3069,8 +3094,8 @@
       </c>
     </row>
     <row r="106" spans="2:6" ht="18.75">
-      <c r="B106" s="25"/>
-      <c r="C106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="28"/>
       <c r="D106" s="6" t="s">
         <v>194</v>
       </c>
@@ -3082,8 +3107,8 @@
       </c>
     </row>
     <row r="107" spans="2:6" ht="18.75">
-      <c r="B107" s="25"/>
-      <c r="C107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="6" t="s">
         <v>196</v>
       </c>
@@ -3095,8 +3120,8 @@
       </c>
     </row>
     <row r="108" spans="2:6" ht="18.75">
-      <c r="B108" s="25"/>
-      <c r="C108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="28"/>
       <c r="D108" s="4" t="s">
         <v>198</v>
       </c>
@@ -3108,8 +3133,8 @@
       </c>
     </row>
     <row r="109" spans="2:6" ht="18.75">
-      <c r="B109" s="25"/>
-      <c r="C109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="28"/>
       <c r="D109" s="6" t="s">
         <v>40</v>
       </c>
@@ -3121,8 +3146,8 @@
       </c>
     </row>
     <row r="110" spans="2:6" ht="18.75">
-      <c r="B110" s="25"/>
-      <c r="C110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="28"/>
       <c r="D110" s="6" t="s">
         <v>200</v>
       </c>
@@ -3134,8 +3159,8 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="18.75">
-      <c r="B111" s="25"/>
-      <c r="C111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="6" t="s">
         <v>202</v>
       </c>
@@ -3147,8 +3172,8 @@
       </c>
     </row>
     <row r="112" spans="2:6" ht="18.75">
-      <c r="B112" s="25"/>
-      <c r="C112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="6" t="s">
         <v>204</v>
       </c>
@@ -3160,8 +3185,8 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="18.75">
-      <c r="B113" s="25"/>
-      <c r="C113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="28"/>
       <c r="D113" s="4" t="s">
         <v>206</v>
       </c>
@@ -3173,8 +3198,8 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="18.75">
-      <c r="B114" s="25"/>
-      <c r="C114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="28"/>
       <c r="D114" s="6" t="s">
         <v>208</v>
       </c>
@@ -3186,8 +3211,8 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="18.75">
-      <c r="B115" s="25"/>
-      <c r="C115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="28"/>
       <c r="D115" s="6" t="s">
         <v>210</v>
       </c>
@@ -3199,8 +3224,8 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="18.75">
-      <c r="B116" s="25"/>
-      <c r="C116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="28"/>
       <c r="D116" s="6" t="s">
         <v>212</v>
       </c>
@@ -3212,8 +3237,8 @@
       </c>
     </row>
     <row r="117" spans="2:6" ht="18.75">
-      <c r="B117" s="25"/>
-      <c r="C117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="28"/>
       <c r="D117" s="4" t="s">
         <v>214</v>
       </c>
@@ -3225,8 +3250,8 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="18.75">
-      <c r="B118" s="25"/>
-      <c r="C118" s="26" t="s">
+      <c r="B118" s="26"/>
+      <c r="C118" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -3237,8 +3262,8 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="18.75">
-      <c r="B119" s="25"/>
-      <c r="C119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="28"/>
       <c r="D119" s="6" t="s">
         <v>216</v>
       </c>
@@ -3247,8 +3272,8 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="18.75">
-      <c r="B120" s="25"/>
-      <c r="C120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="28"/>
       <c r="D120" s="4" t="s">
         <v>218</v>
       </c>
@@ -3257,8 +3282,8 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="18.75">
-      <c r="B121" s="25"/>
-      <c r="C121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="28"/>
       <c r="D121" s="4" t="s">
         <v>220</v>
       </c>
@@ -3267,8 +3292,8 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="18.75">
-      <c r="B122" s="25"/>
-      <c r="C122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="28"/>
       <c r="D122" s="4" t="s">
         <v>222</v>
       </c>
@@ -3278,11 +3303,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="B28:B47"/>
-    <mergeCell ref="B48:B72"/>
-    <mergeCell ref="B73:B97"/>
     <mergeCell ref="B98:B122"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="C13:C22"/>
@@ -3299,6 +3319,11 @@
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="C103:C117"/>
     <mergeCell ref="C118:C122"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="B28:B47"/>
+    <mergeCell ref="B48:B72"/>
+    <mergeCell ref="B73:B97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E54" r:id="rId1"/>

--- a/2020秋招-FLAMG面试频率最高的120道题.xlsx
+++ b/2020秋招-FLAMG面试频率最高的120道题.xlsx
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
